--- a/jijin.xlsx
+++ b/jijin.xlsx
@@ -29,12 +29,15 @@
     <sheet name="华夏中证5G通信主题ETF联接A定投" r:id="rId23" sheetId="21"/>
     <sheet name="中欧医疗健康混合A" r:id="rId24" sheetId="22"/>
     <sheet name="易方达中证500ETF联接A" r:id="rId25" sheetId="23"/>
+    <sheet name="建信中证500指数增强A" r:id="rId26" sheetId="24"/>
+    <sheet name="华夏战略配售（LOF)" r:id="rId27" sheetId="25"/>
+    <sheet name="财通科创主题3年封闭混合" r:id="rId28" sheetId="26"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -83,6 +86,9 @@
   <si>
     <t>分红213.07</t>
   </si>
+  <si>
+    <t>三年封闭2018/07/05</t>
+  </si>
 </sst>
 </file>
 
@@ -91,10 +97,10 @@
   <numFmts count="6">
     <numFmt numFmtId="164" formatCode="yyyy&quot;年&quot;m&quot;月&quot;d&quot;日&quot;;@"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
-    <numFmt numFmtId="167" formatCode="yyyy/m/d"/>
-    <numFmt numFmtId="168" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
-    <numFmt numFmtId="169" formatCode="0.000%"/>
+    <numFmt numFmtId="166" formatCode="yyyy/m/d"/>
+    <numFmt numFmtId="167" formatCode="m&quot;月&quot;d&quot;日&quot;"/>
+    <numFmt numFmtId="168" formatCode="m&quot;月&quot;d&quot;日&quot;;@"/>
+    <numFmt numFmtId="169" formatCode="0.0000"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -168,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="bottom" wrapText="false"/>
@@ -218,19 +224,13 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
@@ -239,31 +239,46 @@
     <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="10" fontId="2" fillId="7" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="bottom" wrapText="false"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
+      <alignment vertical="center" wrapText="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
   </cellXfs>
@@ -928,17 +943,17 @@
       <c r="P18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="17" t="n">
-        <v>43945.0</v>
-      </c>
-      <c r="B19" s="8" t="n">
-        <v>0.0</v>
+      <c r="A19" s="9" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B19" s="5" t="n">
+        <v>250.0</v>
       </c>
       <c r="C19" s="8">
         <f>C18+B19</f>
       </c>
-      <c r="D19" s="15" t="n">
-        <v>2.984</v>
+      <c r="D19" s="10" t="n">
+        <v>2.997</v>
       </c>
       <c r="E19" s="5" t="n">
         <v>4318.44</v>
@@ -946,13 +961,15 @@
       <c r="F19" s="7">
         <f>D19*E19</f>
       </c>
-      <c r="G19" s="12">
-        <f>F19-C19</f>
-      </c>
-      <c r="H19" s="14">
-        <f>G19/C19</f>
-      </c>
-      <c r="I19" s="11"/>
+      <c r="G19" s="15" t="n">
+        <v>442.36</v>
+      </c>
+      <c r="H19" s="16" t="n">
+        <v>0.0353</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J19" s="11"/>
       <c r="K19" s="11"/>
       <c r="L19" s="11"/>
@@ -962,30 +979,14 @@
       <c r="P19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="17" t="n">
-        <v>43948.0</v>
-      </c>
-      <c r="B20" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C20" s="8">
-        <f>C19+B20</f>
-      </c>
-      <c r="D20" s="10" t="n">
-        <v>2.963</v>
-      </c>
-      <c r="E20" s="5" t="n">
-        <v>4318.44</v>
-      </c>
-      <c r="F20" s="7">
-        <f>D20*E20</f>
-      </c>
-      <c r="G20" s="15" t="n">
-        <v>295.53</v>
-      </c>
-      <c r="H20" s="14">
-        <f>G20/C20</f>
-      </c>
+      <c r="A20" s="11"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
       <c r="I20" s="11"/>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
@@ -996,30 +997,14 @@
       <c r="P20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="17" t="n">
-        <v>43949.0</v>
-      </c>
-      <c r="B21" s="5" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C21" s="8">
-        <f>C20+B21</f>
-      </c>
-      <c r="D21" s="10" t="n">
-        <v>2.995</v>
-      </c>
-      <c r="E21" s="5" t="n">
-        <v>4318.44</v>
-      </c>
-      <c r="F21" s="7">
-        <f>D21*E21</f>
-      </c>
-      <c r="G21" s="12">
-        <f>F21-C21</f>
-      </c>
-      <c r="H21" s="14">
-        <f>G21/C21</f>
-      </c>
+      <c r="A21" s="11"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="17"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="11"/>
       <c r="I21" s="11"/>
       <c r="J21" s="11"/>
       <c r="K21" s="11"/>
@@ -1030,31 +1015,15 @@
       <c r="P21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="18" t="n">
-        <v>43951.0</v>
-      </c>
-      <c r="B22" s="5" t="n">
-        <v>250.0</v>
-      </c>
+      <c r="A22" s="11"/>
+      <c r="B22" s="6"/>
       <c r="C22" s="11"/>
-      <c r="D22" s="10" t="n">
-        <v>2.997</v>
-      </c>
-      <c r="E22" s="5" t="n">
-        <v>4318.44</v>
-      </c>
-      <c r="F22" s="7">
-        <f>D22*E22</f>
-      </c>
-      <c r="G22" s="15" t="n">
-        <v>442.36</v>
-      </c>
-      <c r="H22" s="16" t="n">
-        <v>0.0277</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>11</v>
-      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11"/>
       <c r="J22" s="11"/>
       <c r="K22" s="11"/>
       <c r="L22" s="11"/>
@@ -1067,8 +1036,8 @@
       <c r="A23" s="11"/>
       <c r="B23" s="6"/>
       <c r="C23" s="11"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="D23" s="17"/>
+      <c r="E23" s="17"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
       <c r="H23" s="11"/>
@@ -1085,8 +1054,8 @@
       <c r="A24" s="11"/>
       <c r="B24" s="6"/>
       <c r="C24" s="11"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="17"/>
+      <c r="E24" s="17"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="11"/>
@@ -1103,8 +1072,8 @@
       <c r="A25" s="11"/>
       <c r="B25" s="6"/>
       <c r="C25" s="11"/>
-      <c r="D25" s="19"/>
-      <c r="E25" s="19"/>
+      <c r="D25" s="17"/>
+      <c r="E25" s="17"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
       <c r="H25" s="11"/>
@@ -1121,8 +1090,8 @@
       <c r="A26" s="11"/>
       <c r="B26" s="6"/>
       <c r="C26" s="11"/>
-      <c r="D26" s="19"/>
-      <c r="E26" s="19"/>
+      <c r="D26" s="17"/>
+      <c r="E26" s="17"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="11"/>
@@ -1139,8 +1108,8 @@
       <c r="A27" s="11"/>
       <c r="B27" s="6"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
+      <c r="D27" s="17"/>
+      <c r="E27" s="17"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="11"/>
@@ -1157,8 +1126,8 @@
       <c r="A28" s="11"/>
       <c r="B28" s="6"/>
       <c r="C28" s="11"/>
-      <c r="D28" s="19"/>
-      <c r="E28" s="19"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
       <c r="H28" s="11"/>
@@ -1175,8 +1144,8 @@
       <c r="A29" s="11"/>
       <c r="B29" s="6"/>
       <c r="C29" s="11"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
       <c r="H29" s="11"/>
@@ -1193,8 +1162,8 @@
       <c r="A30" s="11"/>
       <c r="B30" s="6"/>
       <c r="C30" s="11"/>
-      <c r="D30" s="19"/>
-      <c r="E30" s="19"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="11"/>
@@ -1211,8 +1180,8 @@
       <c r="A31" s="11"/>
       <c r="B31" s="6"/>
       <c r="C31" s="11"/>
-      <c r="D31" s="19"/>
-      <c r="E31" s="19"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
       <c r="H31" s="11"/>
@@ -1229,8 +1198,8 @@
       <c r="A32" s="11"/>
       <c r="B32" s="6"/>
       <c r="C32" s="11"/>
-      <c r="D32" s="19"/>
-      <c r="E32" s="19"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="11"/>
@@ -1247,8 +1216,8 @@
       <c r="A33" s="11"/>
       <c r="B33" s="6"/>
       <c r="C33" s="11"/>
-      <c r="D33" s="19"/>
-      <c r="E33" s="19"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -1265,8 +1234,8 @@
       <c r="A34" s="11"/>
       <c r="B34" s="6"/>
       <c r="C34" s="11"/>
-      <c r="D34" s="19"/>
-      <c r="E34" s="19"/>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -1283,8 +1252,8 @@
       <c r="A35" s="11"/>
       <c r="B35" s="6"/>
       <c r="C35" s="11"/>
-      <c r="D35" s="19"/>
-      <c r="E35" s="19"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
@@ -1301,8 +1270,8 @@
       <c r="A36" s="11"/>
       <c r="B36" s="6"/>
       <c r="C36" s="11"/>
-      <c r="D36" s="19"/>
-      <c r="E36" s="19"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="17"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="11"/>
@@ -1319,8 +1288,8 @@
       <c r="A37" s="11"/>
       <c r="B37" s="6"/>
       <c r="C37" s="11"/>
-      <c r="D37" s="19"/>
-      <c r="E37" s="19"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="11"/>
@@ -1337,8 +1306,8 @@
       <c r="A38" s="11"/>
       <c r="B38" s="6"/>
       <c r="C38" s="11"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
+      <c r="D38" s="17"/>
+      <c r="E38" s="17"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="11"/>
@@ -1355,8 +1324,8 @@
       <c r="A39" s="11"/>
       <c r="B39" s="6"/>
       <c r="C39" s="11"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
@@ -1373,8 +1342,8 @@
       <c r="A40" s="11"/>
       <c r="B40" s="6"/>
       <c r="C40" s="11"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
@@ -1391,8 +1360,8 @@
       <c r="A41" s="11"/>
       <c r="B41" s="6"/>
       <c r="C41" s="11"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
+      <c r="D41" s="17"/>
+      <c r="E41" s="17"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
@@ -1409,8 +1378,8 @@
       <c r="A42" s="11"/>
       <c r="B42" s="6"/>
       <c r="C42" s="11"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
@@ -1427,8 +1396,8 @@
       <c r="A43" s="11"/>
       <c r="B43" s="6"/>
       <c r="C43" s="11"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
+      <c r="D43" s="17"/>
+      <c r="E43" s="17"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11"/>
@@ -1445,8 +1414,8 @@
       <c r="A44" s="11"/>
       <c r="B44" s="6"/>
       <c r="C44" s="11"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
+      <c r="D44" s="17"/>
+      <c r="E44" s="17"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
       <c r="H44" s="11"/>
@@ -1463,8 +1432,8 @@
       <c r="A45" s="11"/>
       <c r="B45" s="6"/>
       <c r="C45" s="11"/>
-      <c r="D45" s="19"/>
-      <c r="E45" s="19"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
       <c r="H45" s="11"/>
@@ -1481,8 +1450,8 @@
       <c r="A46" s="11"/>
       <c r="B46" s="6"/>
       <c r="C46" s="11"/>
-      <c r="D46" s="19"/>
-      <c r="E46" s="19"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
       <c r="H46" s="11"/>
@@ -1499,8 +1468,8 @@
       <c r="A47" s="11"/>
       <c r="B47" s="6"/>
       <c r="C47" s="11"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
+      <c r="D47" s="17"/>
+      <c r="E47" s="17"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="11"/>
@@ -1517,8 +1486,8 @@
       <c r="A48" s="11"/>
       <c r="B48" s="6"/>
       <c r="C48" s="11"/>
-      <c r="D48" s="19"/>
-      <c r="E48" s="19"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="11"/>
@@ -1535,8 +1504,8 @@
       <c r="A49" s="11"/>
       <c r="B49" s="6"/>
       <c r="C49" s="11"/>
-      <c r="D49" s="19"/>
-      <c r="E49" s="19"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="11"/>
@@ -1553,8 +1522,8 @@
       <c r="A50" s="11"/>
       <c r="B50" s="6"/>
       <c r="C50" s="11"/>
-      <c r="D50" s="19"/>
-      <c r="E50" s="19"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
       <c r="H50" s="11"/>
@@ -1571,8 +1540,8 @@
       <c r="A51" s="11"/>
       <c r="B51" s="6"/>
       <c r="C51" s="11"/>
-      <c r="D51" s="19"/>
-      <c r="E51" s="19"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
       <c r="H51" s="11"/>
@@ -1589,8 +1558,8 @@
       <c r="A52" s="11"/>
       <c r="B52" s="6"/>
       <c r="C52" s="11"/>
-      <c r="D52" s="19"/>
-      <c r="E52" s="19"/>
+      <c r="D52" s="17"/>
+      <c r="E52" s="17"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="11"/>
@@ -1607,8 +1576,8 @@
       <c r="A53" s="11"/>
       <c r="B53" s="6"/>
       <c r="C53" s="11"/>
-      <c r="D53" s="19"/>
-      <c r="E53" s="19"/>
+      <c r="D53" s="17"/>
+      <c r="E53" s="17"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
       <c r="H53" s="11"/>
@@ -1625,8 +1594,8 @@
       <c r="A54" s="11"/>
       <c r="B54" s="6"/>
       <c r="C54" s="11"/>
-      <c r="D54" s="19"/>
-      <c r="E54" s="19"/>
+      <c r="D54" s="17"/>
+      <c r="E54" s="17"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="11"/>
@@ -1643,8 +1612,8 @@
       <c r="A55" s="11"/>
       <c r="B55" s="6"/>
       <c r="C55" s="11"/>
-      <c r="D55" s="19"/>
-      <c r="E55" s="19"/>
+      <c r="D55" s="17"/>
+      <c r="E55" s="17"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="11"/>
@@ -1661,8 +1630,8 @@
       <c r="A56" s="11"/>
       <c r="B56" s="6"/>
       <c r="C56" s="11"/>
-      <c r="D56" s="19"/>
-      <c r="E56" s="19"/>
+      <c r="D56" s="17"/>
+      <c r="E56" s="17"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="11"/>
@@ -1679,8 +1648,8 @@
       <c r="A57" s="11"/>
       <c r="B57" s="6"/>
       <c r="C57" s="11"/>
-      <c r="D57" s="19"/>
-      <c r="E57" s="19"/>
+      <c r="D57" s="17"/>
+      <c r="E57" s="17"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
       <c r="H57" s="11"/>
@@ -1697,8 +1666,8 @@
       <c r="A58" s="11"/>
       <c r="B58" s="6"/>
       <c r="C58" s="11"/>
-      <c r="D58" s="19"/>
-      <c r="E58" s="19"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="11"/>
@@ -1715,8 +1684,8 @@
       <c r="A59" s="11"/>
       <c r="B59" s="6"/>
       <c r="C59" s="11"/>
-      <c r="D59" s="19"/>
-      <c r="E59" s="19"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
       <c r="H59" s="11"/>
@@ -1733,8 +1702,8 @@
       <c r="A60" s="11"/>
       <c r="B60" s="6"/>
       <c r="C60" s="11"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="19"/>
+      <c r="D60" s="17"/>
+      <c r="E60" s="17"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="11"/>
@@ -1751,8 +1720,8 @@
       <c r="A61" s="11"/>
       <c r="B61" s="6"/>
       <c r="C61" s="11"/>
-      <c r="D61" s="19"/>
-      <c r="E61" s="19"/>
+      <c r="D61" s="17"/>
+      <c r="E61" s="17"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="11"/>
@@ -1769,8 +1738,8 @@
       <c r="A62" s="11"/>
       <c r="B62" s="6"/>
       <c r="C62" s="11"/>
-      <c r="D62" s="19"/>
-      <c r="E62" s="19"/>
+      <c r="D62" s="17"/>
+      <c r="E62" s="17"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
       <c r="H62" s="11"/>
@@ -1787,8 +1756,8 @@
       <c r="A63" s="11"/>
       <c r="B63" s="6"/>
       <c r="C63" s="11"/>
-      <c r="D63" s="19"/>
-      <c r="E63" s="19"/>
+      <c r="D63" s="17"/>
+      <c r="E63" s="17"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="11"/>
@@ -1805,8 +1774,8 @@
       <c r="A64" s="11"/>
       <c r="B64" s="6"/>
       <c r="C64" s="11"/>
-      <c r="D64" s="19"/>
-      <c r="E64" s="19"/>
+      <c r="D64" s="17"/>
+      <c r="E64" s="17"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="11"/>
@@ -1823,8 +1792,8 @@
       <c r="A65" s="11"/>
       <c r="B65" s="6"/>
       <c r="C65" s="11"/>
-      <c r="D65" s="19"/>
-      <c r="E65" s="19"/>
+      <c r="D65" s="17"/>
+      <c r="E65" s="17"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
       <c r="H65" s="11"/>
@@ -1841,8 +1810,8 @@
       <c r="A66" s="11"/>
       <c r="B66" s="6"/>
       <c r="C66" s="11"/>
-      <c r="D66" s="19"/>
-      <c r="E66" s="19"/>
+      <c r="D66" s="17"/>
+      <c r="E66" s="17"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="11"/>
@@ -1859,8 +1828,8 @@
       <c r="A67" s="11"/>
       <c r="B67" s="6"/>
       <c r="C67" s="11"/>
-      <c r="D67" s="19"/>
-      <c r="E67" s="19"/>
+      <c r="D67" s="17"/>
+      <c r="E67" s="17"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
       <c r="H67" s="11"/>
@@ -1877,8 +1846,8 @@
       <c r="A68" s="11"/>
       <c r="B68" s="6"/>
       <c r="C68" s="11"/>
-      <c r="D68" s="19"/>
-      <c r="E68" s="19"/>
+      <c r="D68" s="17"/>
+      <c r="E68" s="17"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
       <c r="H68" s="11"/>
@@ -1895,8 +1864,8 @@
       <c r="A69" s="11"/>
       <c r="B69" s="6"/>
       <c r="C69" s="11"/>
-      <c r="D69" s="19"/>
-      <c r="E69" s="19"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
       <c r="H69" s="11"/>
@@ -1913,8 +1882,8 @@
       <c r="A70" s="11"/>
       <c r="B70" s="6"/>
       <c r="C70" s="11"/>
-      <c r="D70" s="19"/>
-      <c r="E70" s="19"/>
+      <c r="D70" s="17"/>
+      <c r="E70" s="17"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="11"/>
@@ -1931,8 +1900,8 @@
       <c r="A71" s="11"/>
       <c r="B71" s="6"/>
       <c r="C71" s="11"/>
-      <c r="D71" s="19"/>
-      <c r="E71" s="19"/>
+      <c r="D71" s="17"/>
+      <c r="E71" s="17"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="11"/>
@@ -1949,8 +1918,8 @@
       <c r="A72" s="11"/>
       <c r="B72" s="6"/>
       <c r="C72" s="11"/>
-      <c r="D72" s="19"/>
-      <c r="E72" s="19"/>
+      <c r="D72" s="17"/>
+      <c r="E72" s="17"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
       <c r="H72" s="11"/>
@@ -1967,8 +1936,8 @@
       <c r="A73" s="11"/>
       <c r="B73" s="6"/>
       <c r="C73" s="11"/>
-      <c r="D73" s="19"/>
-      <c r="E73" s="19"/>
+      <c r="D73" s="17"/>
+      <c r="E73" s="17"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
       <c r="H73" s="11"/>
@@ -1985,8 +1954,8 @@
       <c r="A74" s="11"/>
       <c r="B74" s="6"/>
       <c r="C74" s="11"/>
-      <c r="D74" s="19"/>
-      <c r="E74" s="19"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="11"/>
@@ -2003,8 +1972,8 @@
       <c r="A75" s="11"/>
       <c r="B75" s="6"/>
       <c r="C75" s="11"/>
-      <c r="D75" s="19"/>
-      <c r="E75" s="19"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
       <c r="H75" s="11"/>
@@ -2021,8 +1990,8 @@
       <c r="A76" s="11"/>
       <c r="B76" s="6"/>
       <c r="C76" s="11"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="19"/>
+      <c r="D76" s="17"/>
+      <c r="E76" s="17"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="11"/>
@@ -2039,8 +2008,8 @@
       <c r="A77" s="11"/>
       <c r="B77" s="6"/>
       <c r="C77" s="11"/>
-      <c r="D77" s="19"/>
-      <c r="E77" s="19"/>
+      <c r="D77" s="17"/>
+      <c r="E77" s="17"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
       <c r="H77" s="11"/>
@@ -2057,8 +2026,8 @@
       <c r="A78" s="11"/>
       <c r="B78" s="6"/>
       <c r="C78" s="11"/>
-      <c r="D78" s="19"/>
-      <c r="E78" s="19"/>
+      <c r="D78" s="17"/>
+      <c r="E78" s="17"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="11"/>
@@ -2075,8 +2044,8 @@
       <c r="A79" s="11"/>
       <c r="B79" s="6"/>
       <c r="C79" s="11"/>
-      <c r="D79" s="19"/>
-      <c r="E79" s="19"/>
+      <c r="D79" s="17"/>
+      <c r="E79" s="17"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
       <c r="H79" s="11"/>
@@ -2093,8 +2062,8 @@
       <c r="A80" s="11"/>
       <c r="B80" s="6"/>
       <c r="C80" s="11"/>
-      <c r="D80" s="19"/>
-      <c r="E80" s="19"/>
+      <c r="D80" s="17"/>
+      <c r="E80" s="17"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="11"/>
@@ -2111,8 +2080,8 @@
       <c r="A81" s="11"/>
       <c r="B81" s="6"/>
       <c r="C81" s="11"/>
-      <c r="D81" s="19"/>
-      <c r="E81" s="19"/>
+      <c r="D81" s="17"/>
+      <c r="E81" s="17"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="11"/>
@@ -2129,8 +2098,8 @@
       <c r="A82" s="11"/>
       <c r="B82" s="6"/>
       <c r="C82" s="11"/>
-      <c r="D82" s="19"/>
-      <c r="E82" s="19"/>
+      <c r="D82" s="17"/>
+      <c r="E82" s="17"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="11"/>
@@ -2147,8 +2116,8 @@
       <c r="A83" s="11"/>
       <c r="B83" s="6"/>
       <c r="C83" s="11"/>
-      <c r="D83" s="19"/>
-      <c r="E83" s="19"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
       <c r="H83" s="11"/>
@@ -2165,8 +2134,8 @@
       <c r="A84" s="11"/>
       <c r="B84" s="6"/>
       <c r="C84" s="11"/>
-      <c r="D84" s="19"/>
-      <c r="E84" s="19"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="11"/>
@@ -2183,8 +2152,8 @@
       <c r="A85" s="11"/>
       <c r="B85" s="6"/>
       <c r="C85" s="11"/>
-      <c r="D85" s="19"/>
-      <c r="E85" s="19"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="11"/>
@@ -2201,8 +2170,8 @@
       <c r="A86" s="11"/>
       <c r="B86" s="6"/>
       <c r="C86" s="11"/>
-      <c r="D86" s="19"/>
-      <c r="E86" s="19"/>
+      <c r="D86" s="17"/>
+      <c r="E86" s="17"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
       <c r="H86" s="11"/>
@@ -2219,8 +2188,8 @@
       <c r="A87" s="11"/>
       <c r="B87" s="6"/>
       <c r="C87" s="11"/>
-      <c r="D87" s="19"/>
-      <c r="E87" s="19"/>
+      <c r="D87" s="17"/>
+      <c r="E87" s="17"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="11"/>
@@ -2237,8 +2206,8 @@
       <c r="A88" s="11"/>
       <c r="B88" s="6"/>
       <c r="C88" s="11"/>
-      <c r="D88" s="19"/>
-      <c r="E88" s="19"/>
+      <c r="D88" s="17"/>
+      <c r="E88" s="17"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="11"/>
@@ -2255,8 +2224,8 @@
       <c r="A89" s="11"/>
       <c r="B89" s="6"/>
       <c r="C89" s="11"/>
-      <c r="D89" s="19"/>
-      <c r="E89" s="19"/>
+      <c r="D89" s="17"/>
+      <c r="E89" s="17"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="11"/>
@@ -2273,8 +2242,8 @@
       <c r="A90" s="11"/>
       <c r="B90" s="6"/>
       <c r="C90" s="11"/>
-      <c r="D90" s="19"/>
-      <c r="E90" s="19"/>
+      <c r="D90" s="17"/>
+      <c r="E90" s="17"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
       <c r="H90" s="11"/>
@@ -2291,8 +2260,8 @@
       <c r="A91" s="11"/>
       <c r="B91" s="6"/>
       <c r="C91" s="11"/>
-      <c r="D91" s="19"/>
-      <c r="E91" s="19"/>
+      <c r="D91" s="17"/>
+      <c r="E91" s="17"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
       <c r="H91" s="11"/>
@@ -2309,8 +2278,8 @@
       <c r="A92" s="11"/>
       <c r="B92" s="6"/>
       <c r="C92" s="11"/>
-      <c r="D92" s="19"/>
-      <c r="E92" s="19"/>
+      <c r="D92" s="17"/>
+      <c r="E92" s="17"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="11"/>
@@ -2327,8 +2296,8 @@
       <c r="A93" s="11"/>
       <c r="B93" s="6"/>
       <c r="C93" s="11"/>
-      <c r="D93" s="19"/>
-      <c r="E93" s="19"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="17"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
       <c r="H93" s="11"/>
@@ -2345,8 +2314,8 @@
       <c r="A94" s="11"/>
       <c r="B94" s="6"/>
       <c r="C94" s="11"/>
-      <c r="D94" s="19"/>
-      <c r="E94" s="19"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="17"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="11"/>
@@ -2363,8 +2332,8 @@
       <c r="A95" s="11"/>
       <c r="B95" s="6"/>
       <c r="C95" s="11"/>
-      <c r="D95" s="19"/>
-      <c r="E95" s="19"/>
+      <c r="D95" s="17"/>
+      <c r="E95" s="17"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="11"/>
@@ -2381,8 +2350,8 @@
       <c r="A96" s="11"/>
       <c r="B96" s="6"/>
       <c r="C96" s="11"/>
-      <c r="D96" s="19"/>
-      <c r="E96" s="19"/>
+      <c r="D96" s="17"/>
+      <c r="E96" s="17"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="11"/>
@@ -2399,8 +2368,8 @@
       <c r="A97" s="11"/>
       <c r="B97" s="6"/>
       <c r="C97" s="11"/>
-      <c r="D97" s="19"/>
-      <c r="E97" s="19"/>
+      <c r="D97" s="17"/>
+      <c r="E97" s="17"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
       <c r="H97" s="11"/>
@@ -2417,8 +2386,8 @@
       <c r="A98" s="11"/>
       <c r="B98" s="6"/>
       <c r="C98" s="11"/>
-      <c r="D98" s="19"/>
-      <c r="E98" s="19"/>
+      <c r="D98" s="17"/>
+      <c r="E98" s="17"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="11"/>
@@ -2435,8 +2404,8 @@
       <c r="A99" s="11"/>
       <c r="B99" s="6"/>
       <c r="C99" s="11"/>
-      <c r="D99" s="19"/>
-      <c r="E99" s="19"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="11"/>
@@ -2453,8 +2422,8 @@
       <c r="A100" s="11"/>
       <c r="B100" s="6"/>
       <c r="C100" s="11"/>
-      <c r="D100" s="19"/>
-      <c r="E100" s="19"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
       <c r="H100" s="11"/>
@@ -2471,8 +2440,8 @@
       <c r="A101" s="11"/>
       <c r="B101" s="6"/>
       <c r="C101" s="11"/>
-      <c r="D101" s="19"/>
-      <c r="E101" s="19"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="11"/>
@@ -2489,8 +2458,8 @@
       <c r="A102" s="11"/>
       <c r="B102" s="6"/>
       <c r="C102" s="11"/>
-      <c r="D102" s="19"/>
-      <c r="E102" s="19"/>
+      <c r="D102" s="17"/>
+      <c r="E102" s="17"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="11"/>
@@ -2507,8 +2476,8 @@
       <c r="A103" s="11"/>
       <c r="B103" s="6"/>
       <c r="C103" s="11"/>
-      <c r="D103" s="19"/>
-      <c r="E103" s="19"/>
+      <c r="D103" s="17"/>
+      <c r="E103" s="17"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="11"/>
@@ -2525,8 +2494,8 @@
       <c r="A104" s="11"/>
       <c r="B104" s="6"/>
       <c r="C104" s="11"/>
-      <c r="D104" s="19"/>
-      <c r="E104" s="19"/>
+      <c r="D104" s="17"/>
+      <c r="E104" s="17"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="11"/>
@@ -2543,8 +2512,8 @@
       <c r="A105" s="11"/>
       <c r="B105" s="6"/>
       <c r="C105" s="11"/>
-      <c r="D105" s="19"/>
-      <c r="E105" s="19"/>
+      <c r="D105" s="17"/>
+      <c r="E105" s="17"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="11"/>
@@ -2561,8 +2530,8 @@
       <c r="A106" s="11"/>
       <c r="B106" s="6"/>
       <c r="C106" s="11"/>
-      <c r="D106" s="19"/>
-      <c r="E106" s="19"/>
+      <c r="D106" s="17"/>
+      <c r="E106" s="17"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
       <c r="H106" s="11"/>
@@ -2579,8 +2548,8 @@
       <c r="A107" s="11"/>
       <c r="B107" s="6"/>
       <c r="C107" s="11"/>
-      <c r="D107" s="19"/>
-      <c r="E107" s="19"/>
+      <c r="D107" s="17"/>
+      <c r="E107" s="17"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="11"/>
@@ -2597,8 +2566,8 @@
       <c r="A108" s="11"/>
       <c r="B108" s="6"/>
       <c r="C108" s="11"/>
-      <c r="D108" s="19"/>
-      <c r="E108" s="19"/>
+      <c r="D108" s="17"/>
+      <c r="E108" s="17"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="11"/>
@@ -2615,8 +2584,8 @@
       <c r="A109" s="11"/>
       <c r="B109" s="6"/>
       <c r="C109" s="11"/>
-      <c r="D109" s="19"/>
-      <c r="E109" s="19"/>
+      <c r="D109" s="17"/>
+      <c r="E109" s="17"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
       <c r="H109" s="11"/>
@@ -2633,8 +2602,8 @@
       <c r="A110" s="11"/>
       <c r="B110" s="6"/>
       <c r="C110" s="11"/>
-      <c r="D110" s="19"/>
-      <c r="E110" s="19"/>
+      <c r="D110" s="17"/>
+      <c r="E110" s="17"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="11"/>
@@ -2651,8 +2620,8 @@
       <c r="A111" s="11"/>
       <c r="B111" s="6"/>
       <c r="C111" s="11"/>
-      <c r="D111" s="19"/>
-      <c r="E111" s="19"/>
+      <c r="D111" s="17"/>
+      <c r="E111" s="17"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="11"/>
@@ -2669,8 +2638,8 @@
       <c r="A112" s="11"/>
       <c r="B112" s="6"/>
       <c r="C112" s="11"/>
-      <c r="D112" s="19"/>
-      <c r="E112" s="19"/>
+      <c r="D112" s="17"/>
+      <c r="E112" s="17"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
       <c r="H112" s="11"/>
@@ -2687,8 +2656,8 @@
       <c r="A113" s="11"/>
       <c r="B113" s="6"/>
       <c r="C113" s="11"/>
-      <c r="D113" s="19"/>
-      <c r="E113" s="19"/>
+      <c r="D113" s="17"/>
+      <c r="E113" s="17"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
       <c r="H113" s="11"/>
@@ -2705,8 +2674,8 @@
       <c r="A114" s="11"/>
       <c r="B114" s="6"/>
       <c r="C114" s="11"/>
-      <c r="D114" s="19"/>
-      <c r="E114" s="19"/>
+      <c r="D114" s="17"/>
+      <c r="E114" s="17"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
       <c r="H114" s="11"/>
@@ -2723,8 +2692,8 @@
       <c r="A115" s="11"/>
       <c r="B115" s="6"/>
       <c r="C115" s="11"/>
-      <c r="D115" s="19"/>
-      <c r="E115" s="19"/>
+      <c r="D115" s="17"/>
+      <c r="E115" s="17"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="11"/>
@@ -2741,8 +2710,8 @@
       <c r="A116" s="11"/>
       <c r="B116" s="6"/>
       <c r="C116" s="11"/>
-      <c r="D116" s="19"/>
-      <c r="E116" s="19"/>
+      <c r="D116" s="17"/>
+      <c r="E116" s="17"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="11"/>
@@ -2759,8 +2728,8 @@
       <c r="A117" s="11"/>
       <c r="B117" s="6"/>
       <c r="C117" s="11"/>
-      <c r="D117" s="19"/>
-      <c r="E117" s="19"/>
+      <c r="D117" s="17"/>
+      <c r="E117" s="17"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="11"/>
@@ -2777,8 +2746,8 @@
       <c r="A118" s="11"/>
       <c r="B118" s="6"/>
       <c r="C118" s="11"/>
-      <c r="D118" s="19"/>
-      <c r="E118" s="19"/>
+      <c r="D118" s="17"/>
+      <c r="E118" s="17"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="11"/>
@@ -2795,8 +2764,8 @@
       <c r="A119" s="11"/>
       <c r="B119" s="6"/>
       <c r="C119" s="11"/>
-      <c r="D119" s="19"/>
-      <c r="E119" s="19"/>
+      <c r="D119" s="17"/>
+      <c r="E119" s="17"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="11"/>
@@ -2813,8 +2782,8 @@
       <c r="A120" s="11"/>
       <c r="B120" s="6"/>
       <c r="C120" s="11"/>
-      <c r="D120" s="19"/>
-      <c r="E120" s="19"/>
+      <c r="D120" s="17"/>
+      <c r="E120" s="17"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="11"/>
@@ -2831,8 +2800,8 @@
       <c r="A121" s="11"/>
       <c r="B121" s="6"/>
       <c r="C121" s="11"/>
-      <c r="D121" s="19"/>
-      <c r="E121" s="19"/>
+      <c r="D121" s="17"/>
+      <c r="E121" s="17"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="11"/>
@@ -2849,8 +2818,8 @@
       <c r="A122" s="11"/>
       <c r="B122" s="6"/>
       <c r="C122" s="11"/>
-      <c r="D122" s="19"/>
-      <c r="E122" s="19"/>
+      <c r="D122" s="17"/>
+      <c r="E122" s="17"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="11"/>
@@ -2867,8 +2836,8 @@
       <c r="A123" s="11"/>
       <c r="B123" s="6"/>
       <c r="C123" s="11"/>
-      <c r="D123" s="19"/>
-      <c r="E123" s="19"/>
+      <c r="D123" s="17"/>
+      <c r="E123" s="17"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="11"/>
@@ -2885,8 +2854,8 @@
       <c r="A124" s="11"/>
       <c r="B124" s="6"/>
       <c r="C124" s="11"/>
-      <c r="D124" s="19"/>
-      <c r="E124" s="19"/>
+      <c r="D124" s="17"/>
+      <c r="E124" s="17"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
       <c r="H124" s="11"/>
@@ -2903,8 +2872,8 @@
       <c r="A125" s="11"/>
       <c r="B125" s="6"/>
       <c r="C125" s="11"/>
-      <c r="D125" s="19"/>
-      <c r="E125" s="19"/>
+      <c r="D125" s="17"/>
+      <c r="E125" s="17"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="11"/>
@@ -2921,8 +2890,8 @@
       <c r="A126" s="11"/>
       <c r="B126" s="6"/>
       <c r="C126" s="11"/>
-      <c r="D126" s="19"/>
-      <c r="E126" s="19"/>
+      <c r="D126" s="17"/>
+      <c r="E126" s="17"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="11"/>
@@ -2939,8 +2908,8 @@
       <c r="A127" s="11"/>
       <c r="B127" s="6"/>
       <c r="C127" s="11"/>
-      <c r="D127" s="19"/>
-      <c r="E127" s="19"/>
+      <c r="D127" s="17"/>
+      <c r="E127" s="17"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
       <c r="H127" s="11"/>
@@ -2957,8 +2926,8 @@
       <c r="A128" s="11"/>
       <c r="B128" s="6"/>
       <c r="C128" s="11"/>
-      <c r="D128" s="19"/>
-      <c r="E128" s="19"/>
+      <c r="D128" s="17"/>
+      <c r="E128" s="17"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="11"/>
@@ -2975,8 +2944,8 @@
       <c r="A129" s="11"/>
       <c r="B129" s="6"/>
       <c r="C129" s="11"/>
-      <c r="D129" s="19"/>
-      <c r="E129" s="19"/>
+      <c r="D129" s="17"/>
+      <c r="E129" s="17"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="11"/>
@@ -2993,8 +2962,8 @@
       <c r="A130" s="11"/>
       <c r="B130" s="6"/>
       <c r="C130" s="11"/>
-      <c r="D130" s="19"/>
-      <c r="E130" s="19"/>
+      <c r="D130" s="17"/>
+      <c r="E130" s="17"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="11"/>
@@ -3011,8 +2980,8 @@
       <c r="A131" s="11"/>
       <c r="B131" s="6"/>
       <c r="C131" s="11"/>
-      <c r="D131" s="19"/>
-      <c r="E131" s="19"/>
+      <c r="D131" s="17"/>
+      <c r="E131" s="17"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="11"/>
@@ -3029,8 +2998,8 @@
       <c r="A132" s="11"/>
       <c r="B132" s="6"/>
       <c r="C132" s="11"/>
-      <c r="D132" s="19"/>
-      <c r="E132" s="19"/>
+      <c r="D132" s="17"/>
+      <c r="E132" s="17"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
       <c r="H132" s="11"/>
@@ -3047,8 +3016,8 @@
       <c r="A133" s="11"/>
       <c r="B133" s="6"/>
       <c r="C133" s="11"/>
-      <c r="D133" s="19"/>
-      <c r="E133" s="19"/>
+      <c r="D133" s="17"/>
+      <c r="E133" s="17"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="11"/>
@@ -3065,8 +3034,8 @@
       <c r="A134" s="11"/>
       <c r="B134" s="6"/>
       <c r="C134" s="11"/>
-      <c r="D134" s="19"/>
-      <c r="E134" s="19"/>
+      <c r="D134" s="17"/>
+      <c r="E134" s="17"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="11"/>
@@ -3083,8 +3052,8 @@
       <c r="A135" s="11"/>
       <c r="B135" s="6"/>
       <c r="C135" s="11"/>
-      <c r="D135" s="19"/>
-      <c r="E135" s="19"/>
+      <c r="D135" s="17"/>
+      <c r="E135" s="17"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="11"/>
@@ -3101,8 +3070,8 @@
       <c r="A136" s="11"/>
       <c r="B136" s="6"/>
       <c r="C136" s="11"/>
-      <c r="D136" s="19"/>
-      <c r="E136" s="19"/>
+      <c r="D136" s="17"/>
+      <c r="E136" s="17"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
       <c r="H136" s="11"/>
@@ -3119,8 +3088,8 @@
       <c r="A137" s="11"/>
       <c r="B137" s="6"/>
       <c r="C137" s="11"/>
-      <c r="D137" s="19"/>
-      <c r="E137" s="19"/>
+      <c r="D137" s="17"/>
+      <c r="E137" s="17"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="11"/>
@@ -3137,8 +3106,8 @@
       <c r="A138" s="11"/>
       <c r="B138" s="6"/>
       <c r="C138" s="11"/>
-      <c r="D138" s="19"/>
-      <c r="E138" s="19"/>
+      <c r="D138" s="17"/>
+      <c r="E138" s="17"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
       <c r="H138" s="11"/>
@@ -3155,8 +3124,8 @@
       <c r="A139" s="11"/>
       <c r="B139" s="6"/>
       <c r="C139" s="11"/>
-      <c r="D139" s="19"/>
-      <c r="E139" s="19"/>
+      <c r="D139" s="17"/>
+      <c r="E139" s="17"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="11"/>
@@ -3173,8 +3142,8 @@
       <c r="A140" s="11"/>
       <c r="B140" s="6"/>
       <c r="C140" s="11"/>
-      <c r="D140" s="19"/>
-      <c r="E140" s="19"/>
+      <c r="D140" s="17"/>
+      <c r="E140" s="17"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="11"/>
@@ -3191,8 +3160,8 @@
       <c r="A141" s="11"/>
       <c r="B141" s="6"/>
       <c r="C141" s="11"/>
-      <c r="D141" s="19"/>
-      <c r="E141" s="19"/>
+      <c r="D141" s="17"/>
+      <c r="E141" s="17"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="11"/>
@@ -3209,8 +3178,8 @@
       <c r="A142" s="11"/>
       <c r="B142" s="6"/>
       <c r="C142" s="11"/>
-      <c r="D142" s="19"/>
-      <c r="E142" s="19"/>
+      <c r="D142" s="17"/>
+      <c r="E142" s="17"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="11"/>
@@ -3227,8 +3196,8 @@
       <c r="A143" s="11"/>
       <c r="B143" s="6"/>
       <c r="C143" s="11"/>
-      <c r="D143" s="19"/>
-      <c r="E143" s="19"/>
+      <c r="D143" s="17"/>
+      <c r="E143" s="17"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="11"/>
@@ -3245,8 +3214,8 @@
       <c r="A144" s="11"/>
       <c r="B144" s="6"/>
       <c r="C144" s="11"/>
-      <c r="D144" s="19"/>
-      <c r="E144" s="19"/>
+      <c r="D144" s="17"/>
+      <c r="E144" s="17"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
       <c r="H144" s="11"/>
@@ -3263,8 +3232,8 @@
       <c r="A145" s="11"/>
       <c r="B145" s="6"/>
       <c r="C145" s="11"/>
-      <c r="D145" s="19"/>
-      <c r="E145" s="19"/>
+      <c r="D145" s="17"/>
+      <c r="E145" s="17"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="11"/>
@@ -3281,8 +3250,8 @@
       <c r="A146" s="11"/>
       <c r="B146" s="6"/>
       <c r="C146" s="11"/>
-      <c r="D146" s="19"/>
-      <c r="E146" s="19"/>
+      <c r="D146" s="17"/>
+      <c r="E146" s="17"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="11"/>
@@ -3299,8 +3268,8 @@
       <c r="A147" s="11"/>
       <c r="B147" s="6"/>
       <c r="C147" s="11"/>
-      <c r="D147" s="19"/>
-      <c r="E147" s="19"/>
+      <c r="D147" s="17"/>
+      <c r="E147" s="17"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="11"/>
@@ -3317,8 +3286,8 @@
       <c r="A148" s="11"/>
       <c r="B148" s="6"/>
       <c r="C148" s="11"/>
-      <c r="D148" s="19"/>
-      <c r="E148" s="19"/>
+      <c r="D148" s="17"/>
+      <c r="E148" s="17"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
       <c r="H148" s="11"/>
@@ -3335,8 +3304,8 @@
       <c r="A149" s="11"/>
       <c r="B149" s="6"/>
       <c r="C149" s="11"/>
-      <c r="D149" s="19"/>
-      <c r="E149" s="19"/>
+      <c r="D149" s="17"/>
+      <c r="E149" s="17"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
       <c r="H149" s="11"/>
@@ -3353,8 +3322,8 @@
       <c r="A150" s="11"/>
       <c r="B150" s="6"/>
       <c r="C150" s="11"/>
-      <c r="D150" s="19"/>
-      <c r="E150" s="19"/>
+      <c r="D150" s="17"/>
+      <c r="E150" s="17"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="11"/>
@@ -3371,8 +3340,8 @@
       <c r="A151" s="11"/>
       <c r="B151" s="6"/>
       <c r="C151" s="11"/>
-      <c r="D151" s="19"/>
-      <c r="E151" s="19"/>
+      <c r="D151" s="17"/>
+      <c r="E151" s="17"/>
       <c r="F151" s="11"/>
       <c r="G151" s="11"/>
       <c r="H151" s="11"/>
@@ -3389,8 +3358,8 @@
       <c r="A152" s="11"/>
       <c r="B152" s="6"/>
       <c r="C152" s="11"/>
-      <c r="D152" s="19"/>
-      <c r="E152" s="19"/>
+      <c r="D152" s="17"/>
+      <c r="E152" s="17"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="11"/>
@@ -3407,8 +3376,8 @@
       <c r="A153" s="11"/>
       <c r="B153" s="6"/>
       <c r="C153" s="11"/>
-      <c r="D153" s="19"/>
-      <c r="E153" s="19"/>
+      <c r="D153" s="17"/>
+      <c r="E153" s="17"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="11"/>
@@ -3425,8 +3394,8 @@
       <c r="A154" s="11"/>
       <c r="B154" s="6"/>
       <c r="C154" s="11"/>
-      <c r="D154" s="19"/>
-      <c r="E154" s="19"/>
+      <c r="D154" s="17"/>
+      <c r="E154" s="17"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="11"/>
@@ -3443,8 +3412,8 @@
       <c r="A155" s="11"/>
       <c r="B155" s="6"/>
       <c r="C155" s="11"/>
-      <c r="D155" s="19"/>
-      <c r="E155" s="19"/>
+      <c r="D155" s="17"/>
+      <c r="E155" s="17"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
       <c r="H155" s="11"/>
@@ -3461,8 +3430,8 @@
       <c r="A156" s="11"/>
       <c r="B156" s="6"/>
       <c r="C156" s="11"/>
-      <c r="D156" s="19"/>
-      <c r="E156" s="19"/>
+      <c r="D156" s="17"/>
+      <c r="E156" s="17"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
       <c r="H156" s="11"/>
@@ -3479,8 +3448,8 @@
       <c r="A157" s="11"/>
       <c r="B157" s="6"/>
       <c r="C157" s="11"/>
-      <c r="D157" s="19"/>
-      <c r="E157" s="19"/>
+      <c r="D157" s="17"/>
+      <c r="E157" s="17"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
       <c r="H157" s="11"/>
@@ -3497,8 +3466,8 @@
       <c r="A158" s="11"/>
       <c r="B158" s="6"/>
       <c r="C158" s="11"/>
-      <c r="D158" s="19"/>
-      <c r="E158" s="19"/>
+      <c r="D158" s="17"/>
+      <c r="E158" s="17"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="11"/>
@@ -3515,8 +3484,8 @@
       <c r="A159" s="11"/>
       <c r="B159" s="6"/>
       <c r="C159" s="11"/>
-      <c r="D159" s="19"/>
-      <c r="E159" s="19"/>
+      <c r="D159" s="17"/>
+      <c r="E159" s="17"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="11"/>
@@ -3533,8 +3502,8 @@
       <c r="A160" s="11"/>
       <c r="B160" s="6"/>
       <c r="C160" s="11"/>
-      <c r="D160" s="19"/>
-      <c r="E160" s="19"/>
+      <c r="D160" s="17"/>
+      <c r="E160" s="17"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="11"/>
@@ -3551,8 +3520,8 @@
       <c r="A161" s="11"/>
       <c r="B161" s="6"/>
       <c r="C161" s="11"/>
-      <c r="D161" s="19"/>
-      <c r="E161" s="19"/>
+      <c r="D161" s="17"/>
+      <c r="E161" s="17"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
       <c r="H161" s="11"/>
@@ -3569,8 +3538,8 @@
       <c r="A162" s="11"/>
       <c r="B162" s="6"/>
       <c r="C162" s="11"/>
-      <c r="D162" s="19"/>
-      <c r="E162" s="19"/>
+      <c r="D162" s="17"/>
+      <c r="E162" s="17"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
       <c r="H162" s="11"/>
@@ -3587,8 +3556,8 @@
       <c r="A163" s="11"/>
       <c r="B163" s="6"/>
       <c r="C163" s="11"/>
-      <c r="D163" s="19"/>
-      <c r="E163" s="19"/>
+      <c r="D163" s="17"/>
+      <c r="E163" s="17"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="11"/>
@@ -3605,8 +3574,8 @@
       <c r="A164" s="11"/>
       <c r="B164" s="6"/>
       <c r="C164" s="11"/>
-      <c r="D164" s="19"/>
-      <c r="E164" s="19"/>
+      <c r="D164" s="17"/>
+      <c r="E164" s="17"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
       <c r="H164" s="11"/>
@@ -3623,8 +3592,8 @@
       <c r="A165" s="11"/>
       <c r="B165" s="6"/>
       <c r="C165" s="11"/>
-      <c r="D165" s="19"/>
-      <c r="E165" s="19"/>
+      <c r="D165" s="17"/>
+      <c r="E165" s="17"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="11"/>
@@ -3641,8 +3610,8 @@
       <c r="A166" s="11"/>
       <c r="B166" s="6"/>
       <c r="C166" s="11"/>
-      <c r="D166" s="19"/>
-      <c r="E166" s="19"/>
+      <c r="D166" s="17"/>
+      <c r="E166" s="17"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="11"/>
@@ -3659,8 +3628,8 @@
       <c r="A167" s="11"/>
       <c r="B167" s="6"/>
       <c r="C167" s="11"/>
-      <c r="D167" s="19"/>
-      <c r="E167" s="19"/>
+      <c r="D167" s="17"/>
+      <c r="E167" s="17"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
       <c r="H167" s="11"/>
@@ -3677,8 +3646,8 @@
       <c r="A168" s="11"/>
       <c r="B168" s="6"/>
       <c r="C168" s="11"/>
-      <c r="D168" s="19"/>
-      <c r="E168" s="19"/>
+      <c r="D168" s="17"/>
+      <c r="E168" s="17"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
       <c r="H168" s="11"/>
@@ -3695,8 +3664,8 @@
       <c r="A169" s="11"/>
       <c r="B169" s="6"/>
       <c r="C169" s="11"/>
-      <c r="D169" s="19"/>
-      <c r="E169" s="19"/>
+      <c r="D169" s="17"/>
+      <c r="E169" s="17"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="11"/>
@@ -3713,8 +3682,8 @@
       <c r="A170" s="11"/>
       <c r="B170" s="6"/>
       <c r="C170" s="11"/>
-      <c r="D170" s="19"/>
-      <c r="E170" s="19"/>
+      <c r="D170" s="17"/>
+      <c r="E170" s="17"/>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="11"/>
@@ -3731,8 +3700,8 @@
       <c r="A171" s="11"/>
       <c r="B171" s="6"/>
       <c r="C171" s="11"/>
-      <c r="D171" s="19"/>
-      <c r="E171" s="19"/>
+      <c r="D171" s="17"/>
+      <c r="E171" s="17"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="11"/>
@@ -3749,8 +3718,8 @@
       <c r="A172" s="11"/>
       <c r="B172" s="6"/>
       <c r="C172" s="11"/>
-      <c r="D172" s="19"/>
-      <c r="E172" s="19"/>
+      <c r="D172" s="17"/>
+      <c r="E172" s="17"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
       <c r="H172" s="11"/>
@@ -3767,8 +3736,8 @@
       <c r="A173" s="11"/>
       <c r="B173" s="6"/>
       <c r="C173" s="11"/>
-      <c r="D173" s="19"/>
-      <c r="E173" s="19"/>
+      <c r="D173" s="17"/>
+      <c r="E173" s="17"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
       <c r="H173" s="11"/>
@@ -3785,8 +3754,8 @@
       <c r="A174" s="11"/>
       <c r="B174" s="6"/>
       <c r="C174" s="11"/>
-      <c r="D174" s="19"/>
-      <c r="E174" s="19"/>
+      <c r="D174" s="17"/>
+      <c r="E174" s="17"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
       <c r="H174" s="11"/>
@@ -3803,8 +3772,8 @@
       <c r="A175" s="11"/>
       <c r="B175" s="6"/>
       <c r="C175" s="11"/>
-      <c r="D175" s="19"/>
-      <c r="E175" s="19"/>
+      <c r="D175" s="17"/>
+      <c r="E175" s="17"/>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="11"/>
@@ -3821,8 +3790,8 @@
       <c r="A176" s="11"/>
       <c r="B176" s="6"/>
       <c r="C176" s="11"/>
-      <c r="D176" s="19"/>
-      <c r="E176" s="19"/>
+      <c r="D176" s="17"/>
+      <c r="E176" s="17"/>
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="11"/>
@@ -3839,8 +3808,8 @@
       <c r="A177" s="11"/>
       <c r="B177" s="6"/>
       <c r="C177" s="11"/>
-      <c r="D177" s="19"/>
-      <c r="E177" s="19"/>
+      <c r="D177" s="17"/>
+      <c r="E177" s="17"/>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="11"/>
@@ -3857,8 +3826,8 @@
       <c r="A178" s="11"/>
       <c r="B178" s="6"/>
       <c r="C178" s="11"/>
-      <c r="D178" s="19"/>
-      <c r="E178" s="19"/>
+      <c r="D178" s="17"/>
+      <c r="E178" s="17"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
       <c r="H178" s="11"/>
@@ -3875,8 +3844,8 @@
       <c r="A179" s="11"/>
       <c r="B179" s="6"/>
       <c r="C179" s="11"/>
-      <c r="D179" s="19"/>
-      <c r="E179" s="19"/>
+      <c r="D179" s="17"/>
+      <c r="E179" s="17"/>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="11"/>
@@ -3893,8 +3862,8 @@
       <c r="A180" s="11"/>
       <c r="B180" s="6"/>
       <c r="C180" s="11"/>
-      <c r="D180" s="19"/>
-      <c r="E180" s="19"/>
+      <c r="D180" s="17"/>
+      <c r="E180" s="17"/>
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
       <c r="H180" s="11"/>
@@ -3911,8 +3880,8 @@
       <c r="A181" s="11"/>
       <c r="B181" s="6"/>
       <c r="C181" s="11"/>
-      <c r="D181" s="19"/>
-      <c r="E181" s="19"/>
+      <c r="D181" s="17"/>
+      <c r="E181" s="17"/>
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
       <c r="H181" s="11"/>
@@ -3929,8 +3898,8 @@
       <c r="A182" s="11"/>
       <c r="B182" s="6"/>
       <c r="C182" s="11"/>
-      <c r="D182" s="19"/>
-      <c r="E182" s="19"/>
+      <c r="D182" s="17"/>
+      <c r="E182" s="17"/>
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
       <c r="H182" s="11"/>
@@ -3947,8 +3916,8 @@
       <c r="A183" s="11"/>
       <c r="B183" s="6"/>
       <c r="C183" s="11"/>
-      <c r="D183" s="19"/>
-      <c r="E183" s="19"/>
+      <c r="D183" s="17"/>
+      <c r="E183" s="17"/>
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
       <c r="H183" s="11"/>
@@ -3965,8 +3934,8 @@
       <c r="A184" s="11"/>
       <c r="B184" s="6"/>
       <c r="C184" s="11"/>
-      <c r="D184" s="19"/>
-      <c r="E184" s="19"/>
+      <c r="D184" s="17"/>
+      <c r="E184" s="17"/>
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
       <c r="H184" s="11"/>
@@ -3983,8 +3952,8 @@
       <c r="A185" s="11"/>
       <c r="B185" s="6"/>
       <c r="C185" s="11"/>
-      <c r="D185" s="19"/>
-      <c r="E185" s="19"/>
+      <c r="D185" s="17"/>
+      <c r="E185" s="17"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
       <c r="H185" s="11"/>
@@ -4001,8 +3970,8 @@
       <c r="A186" s="11"/>
       <c r="B186" s="6"/>
       <c r="C186" s="11"/>
-      <c r="D186" s="19"/>
-      <c r="E186" s="19"/>
+      <c r="D186" s="17"/>
+      <c r="E186" s="17"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
       <c r="H186" s="11"/>
@@ -4019,8 +3988,8 @@
       <c r="A187" s="11"/>
       <c r="B187" s="6"/>
       <c r="C187" s="11"/>
-      <c r="D187" s="19"/>
-      <c r="E187" s="19"/>
+      <c r="D187" s="17"/>
+      <c r="E187" s="17"/>
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
       <c r="H187" s="11"/>
@@ -4037,8 +4006,8 @@
       <c r="A188" s="11"/>
       <c r="B188" s="6"/>
       <c r="C188" s="11"/>
-      <c r="D188" s="19"/>
-      <c r="E188" s="19"/>
+      <c r="D188" s="17"/>
+      <c r="E188" s="17"/>
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
       <c r="H188" s="11"/>
@@ -4055,8 +4024,8 @@
       <c r="A189" s="11"/>
       <c r="B189" s="6"/>
       <c r="C189" s="11"/>
-      <c r="D189" s="19"/>
-      <c r="E189" s="19"/>
+      <c r="D189" s="17"/>
+      <c r="E189" s="17"/>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
       <c r="H189" s="11"/>
@@ -4073,8 +4042,8 @@
       <c r="A190" s="11"/>
       <c r="B190" s="6"/>
       <c r="C190" s="11"/>
-      <c r="D190" s="19"/>
-      <c r="E190" s="19"/>
+      <c r="D190" s="17"/>
+      <c r="E190" s="17"/>
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
       <c r="H190" s="11"/>
@@ -4091,8 +4060,8 @@
       <c r="A191" s="11"/>
       <c r="B191" s="6"/>
       <c r="C191" s="11"/>
-      <c r="D191" s="19"/>
-      <c r="E191" s="19"/>
+      <c r="D191" s="17"/>
+      <c r="E191" s="17"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
       <c r="H191" s="11"/>
@@ -4109,8 +4078,8 @@
       <c r="A192" s="11"/>
       <c r="B192" s="6"/>
       <c r="C192" s="11"/>
-      <c r="D192" s="19"/>
-      <c r="E192" s="19"/>
+      <c r="D192" s="17"/>
+      <c r="E192" s="17"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
       <c r="H192" s="11"/>
@@ -4127,8 +4096,8 @@
       <c r="A193" s="11"/>
       <c r="B193" s="6"/>
       <c r="C193" s="11"/>
-      <c r="D193" s="19"/>
-      <c r="E193" s="19"/>
+      <c r="D193" s="17"/>
+      <c r="E193" s="17"/>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
       <c r="H193" s="11"/>
@@ -4145,8 +4114,8 @@
       <c r="A194" s="11"/>
       <c r="B194" s="6"/>
       <c r="C194" s="11"/>
-      <c r="D194" s="19"/>
-      <c r="E194" s="19"/>
+      <c r="D194" s="17"/>
+      <c r="E194" s="17"/>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
       <c r="H194" s="11"/>
@@ -4163,8 +4132,8 @@
       <c r="A195" s="11"/>
       <c r="B195" s="6"/>
       <c r="C195" s="11"/>
-      <c r="D195" s="19"/>
-      <c r="E195" s="19"/>
+      <c r="D195" s="17"/>
+      <c r="E195" s="17"/>
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
       <c r="H195" s="11"/>
@@ -4181,8 +4150,8 @@
       <c r="A196" s="11"/>
       <c r="B196" s="6"/>
       <c r="C196" s="11"/>
-      <c r="D196" s="19"/>
-      <c r="E196" s="19"/>
+      <c r="D196" s="17"/>
+      <c r="E196" s="17"/>
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
       <c r="H196" s="11"/>
@@ -4199,8 +4168,8 @@
       <c r="A197" s="11"/>
       <c r="B197" s="6"/>
       <c r="C197" s="11"/>
-      <c r="D197" s="19"/>
-      <c r="E197" s="19"/>
+      <c r="D197" s="17"/>
+      <c r="E197" s="17"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
       <c r="H197" s="11"/>
@@ -4217,8 +4186,8 @@
       <c r="A198" s="11"/>
       <c r="B198" s="6"/>
       <c r="C198" s="11"/>
-      <c r="D198" s="19"/>
-      <c r="E198" s="19"/>
+      <c r="D198" s="17"/>
+      <c r="E198" s="17"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
       <c r="H198" s="11"/>
@@ -4230,60 +4199,6 @@
       <c r="N198" s="11"/>
       <c r="O198" s="11"/>
       <c r="P198" s="11"/>
-    </row>
-    <row r="199">
-      <c r="A199" s="11"/>
-      <c r="B199" s="6"/>
-      <c r="C199" s="11"/>
-      <c r="D199" s="19"/>
-      <c r="E199" s="19"/>
-      <c r="F199" s="11"/>
-      <c r="G199" s="11"/>
-      <c r="H199" s="11"/>
-      <c r="I199" s="11"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="11"/>
-      <c r="L199" s="11"/>
-      <c r="M199" s="11"/>
-      <c r="N199" s="11"/>
-      <c r="O199" s="11"/>
-      <c r="P199" s="11"/>
-    </row>
-    <row r="200">
-      <c r="A200" s="11"/>
-      <c r="B200" s="6"/>
-      <c r="C200" s="11"/>
-      <c r="D200" s="19"/>
-      <c r="E200" s="19"/>
-      <c r="F200" s="11"/>
-      <c r="G200" s="11"/>
-      <c r="H200" s="11"/>
-      <c r="I200" s="11"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="11"/>
-      <c r="L200" s="11"/>
-      <c r="M200" s="11"/>
-      <c r="N200" s="11"/>
-      <c r="O200" s="11"/>
-      <c r="P200" s="11"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="11"/>
-      <c r="B201" s="6"/>
-      <c r="C201" s="11"/>
-      <c r="D201" s="19"/>
-      <c r="E201" s="19"/>
-      <c r="F201" s="11"/>
-      <c r="G201" s="11"/>
-      <c r="H201" s="11"/>
-      <c r="I201" s="11"/>
-      <c r="J201" s="11"/>
-      <c r="K201" s="11"/>
-      <c r="L201" s="11"/>
-      <c r="M201" s="11"/>
-      <c r="N201" s="11"/>
-      <c r="O201" s="11"/>
-      <c r="P201" s="11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4361,7 +4276,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43900.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -4382,7 +4297,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="I2" s="11" t="s">
@@ -4393,7 +4308,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43901.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -4414,7 +4329,7 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="3" t="s">
@@ -4422,7 +4337,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43902.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -4443,7 +4358,7 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="3" t="s">
@@ -4451,7 +4366,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43903.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -4472,7 +4387,7 @@
       <c r="G5" s="15">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
       <c r="I5" s="3" t="s">
@@ -4480,7 +4395,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43923.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -4501,7 +4416,7 @@
       <c r="G6" s="15">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
       <c r="I6" s="11" t="s">
@@ -4509,7 +4424,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -4530,7 +4445,7 @@
       <c r="G7" s="15">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>G7/C7</f>
       </c>
       <c r="I7" s="3" t="s">
@@ -4538,7 +4453,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B8" s="15" t="n">
@@ -4559,7 +4474,7 @@
       <c r="G8" s="15">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>G8/C8</f>
       </c>
       <c r="I8" s="3" t="s">
@@ -4567,7 +4482,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -4588,7 +4503,7 @@
       <c r="G9" s="15">
         <f>F9-C9</f>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f>G9/C9</f>
       </c>
       <c r="I9" s="3" t="s">
@@ -4596,7 +4511,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B10" s="15" t="n">
@@ -4617,8 +4532,8 @@
       <c r="G10" s="15" t="n">
         <v>285.87</v>
       </c>
-      <c r="H10" s="15" t="n">
-        <v>5.71</v>
+      <c r="H10" s="16" t="n">
+        <v>0.0571</v>
       </c>
     </row>
     <row r="11">
@@ -5077,7 +4992,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43909.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -5098,7 +5013,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -5106,7 +5021,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43916.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -5127,12 +5042,12 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43923.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -5153,12 +5068,12 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -5179,12 +5094,12 @@
       <c r="G5" s="15">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -5205,12 +5120,12 @@
       <c r="G6" s="15">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -5231,8 +5146,8 @@
       <c r="G7" s="15" t="n">
         <v>145.82</v>
       </c>
-      <c r="H7" s="15" t="n">
-        <v>4.09</v>
+      <c r="H7" s="16" t="n">
+        <v>0.0409</v>
       </c>
     </row>
     <row r="8">
@@ -5697,7 +5612,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43908.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -5718,7 +5633,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="I2" s="11" t="s">
@@ -5730,7 +5645,7 @@
       <c r="K2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43923.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -5751,7 +5666,7 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="11" t="s">
@@ -5759,7 +5674,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -5780,7 +5695,7 @@
       <c r="G4" s="8">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="3" t="s">
@@ -5788,7 +5703,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -5809,7 +5724,7 @@
       <c r="G5" s="8">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
       <c r="I5" s="3" t="s">
@@ -5817,7 +5732,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -5830,15 +5745,15 @@
         <v>1.7446</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>1212.29</v>
+        <v>1069.21</v>
       </c>
       <c r="F6" s="8">
         <f>D6*E6</f>
       </c>
-      <c r="G6" s="8">
-        <f>F6-C6</f>
-      </c>
-      <c r="H6" s="20">
+      <c r="G6" s="8" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
       <c r="I6" s="3" t="s">
@@ -5846,7 +5761,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -5867,8 +5782,8 @@
       <c r="G7" s="15" t="n">
         <v>149.02</v>
       </c>
-      <c r="H7" s="15" t="n">
-        <v>7.45</v>
+      <c r="H7" s="16" t="n">
+        <v>0.0745</v>
       </c>
     </row>
     <row r="8">
@@ -6333,7 +6248,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43622.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -6354,7 +6269,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -6362,7 +6277,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="n">
+      <c r="A3" s="27" t="n">
         <v>43945.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -6388,7 +6303,31 @@
       </c>
     </row>
     <row r="4">
-</row>
+      <c r="A4" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>0.9261</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>781.81</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>224.03</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
     <row r="5">
 </row>
     <row r="6">
@@ -6857,7 +6796,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43907.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -6878,7 +6817,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -6886,10 +6825,30 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="30"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
+      <c r="A3" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>1000.0</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>1049.95</v>
+      </c>
+      <c r="F3" s="15">
+        <f>D3*E3</f>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>20.55</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0.0205</v>
+      </c>
     </row>
     <row r="4">
 </row>
@@ -7363,7 +7322,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43581.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -7384,7 +7343,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -7392,7 +7351,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="n">
+      <c r="A3" s="27" t="n">
         <v>43592.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -7413,12 +7372,12 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="28" t="n">
+      <c r="A4" s="27" t="n">
         <v>43621.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -7439,12 +7398,12 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="28" t="n">
+      <c r="A5" s="27" t="n">
         <v>43733.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -7464,7 +7423,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="17" t="n">
+      <c r="A6" s="30" t="n">
         <v>43945.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -7487,7 +7446,31 @@
       </c>
     </row>
     <row r="7">
-</row>
+      <c r="A7" s="32" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="8">
+        <f>C6-K6</f>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>1.351</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>946.97</v>
+      </c>
+      <c r="F7" s="15">
+        <f>D7*E7</f>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>-37.58</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>-0.0286</v>
+      </c>
+    </row>
     <row r="8">
 </row>
     <row r="9">
@@ -7950,7 +7933,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43895.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -7967,7 +7950,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43913.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -7988,12 +7971,36 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-</row>
+      <c r="A4" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+B4</f>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>1.684</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>2415.71</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
+      </c>
+      <c r="G4" s="8" t="n">
+        <v>68.07</v>
+      </c>
+      <c r="H4" s="14">
+        <f>G4/C4</f>
+      </c>
+    </row>
     <row r="5">
 </row>
     <row r="6">
@@ -8462,9 +8469,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
-        <v>43846.0</v>
-      </c>
+      <c r="A2" s="33"/>
       <c r="B2" s="15" t="n">
         <v>5000.0</v>
       </c>
@@ -8483,7 +8488,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -8491,8 +8496,8 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
-        <v>43877.0</v>
+      <c r="A3" s="19" t="n">
+        <v>43887.0</v>
       </c>
       <c r="B3" s="15" t="n">
         <v>3000.0</v>
@@ -8512,12 +8517,12 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43889.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -8538,13 +8543,13 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="14">
         <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
-        <v>43889.0</v>
+      <c r="A5" s="19" t="n">
+        <v>43951.0</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>0.0</v>
@@ -8564,8 +8569,8 @@
       <c r="G5" s="15" t="n">
         <v>-353.5</v>
       </c>
-      <c r="H5" s="15" t="n">
-        <v>-7.87</v>
+      <c r="H5" s="25" t="n">
+        <v>-0.0354</v>
       </c>
     </row>
     <row r="6">
@@ -8955,8 +8960,6 @@
     <row r="198">
 </row>
     <row r="199">
-</row>
-    <row r="200">
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -9034,7 +9037,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43896.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -9055,7 +9058,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -9063,7 +9066,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43923.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -9072,7 +9075,7 @@
       <c r="C3" s="15">
         <f>C2+B3</f>
       </c>
-      <c r="D3" s="15" t="n">
+      <c r="D3" s="29" t="n">
         <v>0.95</v>
       </c>
       <c r="E3" s="15" t="n">
@@ -9084,12 +9087,36 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-</row>
+      <c r="A4" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+B4</f>
+      </c>
+      <c r="D4" s="34" t="n">
+        <v>0.972</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>2456.82</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>-111.98</v>
+      </c>
+      <c r="H4" s="15" t="n">
+        <v>-4.48</v>
+      </c>
+    </row>
     <row r="5">
 </row>
     <row r="6">
@@ -9558,7 +9585,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43931.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -9579,7 +9606,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -9587,7 +9614,31 @@
       </c>
     </row>
     <row r="3">
-</row>
+      <c r="A3" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="15">
+        <f>C2+B3</f>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>2.0266</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>256.58</v>
+      </c>
+      <c r="F3" s="8">
+        <f>D3*E3</f>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0.0399</v>
+      </c>
+    </row>
     <row r="4">
 </row>
     <row r="5">
@@ -10079,7 +10130,7 @@
       <c r="G2" s="8">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="20">
+      <c r="H2" s="18">
         <f>G2/C2</f>
       </c>
       <c r="I2" s="3" t="s">
@@ -10119,7 +10170,7 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="3" t="s">
@@ -10155,7 +10206,7 @@
       <c r="G4" s="8">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="3" t="s">
@@ -10184,7 +10235,7 @@
       <c r="G5" s="8">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
       <c r="I5" s="3" t="s">
@@ -10213,7 +10264,7 @@
       <c r="G6" s="8">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
       <c r="I6" s="3" t="s">
@@ -10242,7 +10293,7 @@
       <c r="G7" s="8">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>G7/C7</f>
       </c>
       <c r="I7" s="3" t="s">
@@ -10271,7 +10322,7 @@
       <c r="G8" s="8">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>G8/C8</f>
       </c>
       <c r="I8" s="3" t="s">
@@ -10280,7 +10331,7 @@
     </row>
     <row r="9">
       <c r="A9" s="9" t="n">
-        <v>43920.0</v>
+        <v>43951.0</v>
       </c>
       <c r="B9" s="15" t="n">
         <v>0.0</v>
@@ -10300,8 +10351,8 @@
       <c r="G9" s="15" t="n">
         <v>-319.38</v>
       </c>
-      <c r="H9" s="15" t="n">
-        <v>-7.73</v>
+      <c r="H9" s="16" t="n">
+        <v>-0.032</v>
       </c>
     </row>
     <row r="10">
@@ -10950,7 +11001,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43934.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -10971,7 +11022,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="I2" s="11" t="s">
@@ -10982,7 +11033,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -11003,7 +11054,7 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="11" t="s">
@@ -11011,7 +11062,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -11032,7 +11083,7 @@
       <c r="G4" s="8">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="14">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="3" t="s">
@@ -11040,7 +11091,34 @@
       </c>
     </row>
     <row r="5">
-</row>
+      <c r="A5" s="19" t="n">
+        <v>43944.0</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4+B5</f>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>1.3645</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1124.84</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5*E5</f>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>38.84</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>0.0232</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="6">
 </row>
     <row r="7">
@@ -11507,51 +11585,41 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
-        <v>43805.0</v>
+      <c r="A2" s="19" t="n">
+        <v>43934.0</v>
       </c>
       <c r="B2" s="15" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="C2" s="15" t="n">
-        <v>4000.0</v>
-      </c>
-      <c r="J2" s="8" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="C2" s="8" t="n">
+        <v>500.0</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>1.007</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>496.52</v>
+      </c>
+      <c r="F2" s="15">
+        <f>D2*E2</f>
+      </c>
+      <c r="G2" s="15">
+        <f>F2-C2</f>
+      </c>
+      <c r="H2" s="13">
+        <f>G2/C2</f>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="15" t="n">
         <v>0.0</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
-        <v>43887.0</v>
-      </c>
-      <c r="B3" s="15" t="n">
-        <v>3000.0</v>
-      </c>
-      <c r="C3" s="15">
-        <f>C2+B3</f>
-      </c>
-      <c r="D3" s="15" t="n">
-        <v>1.2831</v>
-      </c>
-    </row>
+</row>
     <row r="4">
-      <c r="A4" s="21" t="n">
-        <v>43934.0</v>
-      </c>
-      <c r="B4" s="15" t="n">
-        <v>500.0</v>
-      </c>
-      <c r="C4" s="8">
-        <f>C3+B4</f>
-      </c>
-      <c r="D4" s="15" t="n">
-        <v>1.007</v>
-      </c>
-      <c r="E4" s="15" t="n">
-        <v>496.52</v>
-      </c>
-      <c r="F4" s="11"/>
-    </row>
+</row>
     <row r="5">
 </row>
     <row r="6">
@@ -11933,10 +12001,6 @@
     <row r="194">
 </row>
     <row r="195">
-</row>
-    <row r="196">
-</row>
-    <row r="197">
 </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -12014,7 +12078,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43937.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -12032,12 +12096,8 @@
       <c r="F2" s="15">
         <f>D2*E2</f>
       </c>
-      <c r="G2" s="15">
-        <f>F2-C2</f>
-      </c>
-      <c r="H2" s="29">
-        <f>G2/C2</f>
-      </c>
+      <c r="G2" s="11"/>
+      <c r="H2" s="28"/>
       <c r="I2" s="11" t="s">
         <v>11</v>
       </c>
@@ -12046,7 +12106,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -12059,23 +12119,21 @@
         <v>2.218</v>
       </c>
       <c r="E3" s="15" t="n">
-        <v>227.96</v>
+        <v>115.41</v>
       </c>
       <c r="F3" s="8">
         <f>D3*E3</f>
       </c>
-      <c r="G3" s="8">
-        <f>F3-C3</f>
-      </c>
-      <c r="H3" s="20">
-        <f>G3/C3</f>
-      </c>
+      <c r="G3" s="8" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="H3" s="18"/>
       <c r="I3" s="3" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -12096,7 +12154,7 @@
       <c r="G4" s="15" t="n">
         <v>-2.82</v>
       </c>
-      <c r="H4" s="32" t="n">
+      <c r="H4" s="16" t="n">
         <v>-0.0057</v>
       </c>
       <c r="I4" s="3" t="s">
@@ -12571,7 +12629,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43579.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -12592,7 +12650,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="15" t="n">
@@ -12600,7 +12658,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43592.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -12621,12 +12679,12 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43621.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -12647,12 +12705,12 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43889.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -12673,12 +12731,12 @@
       <c r="G5" s="15">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -12703,6 +12761,1579 @@
         <v>0.0368</v>
       </c>
     </row>
+    <row r="7">
+</row>
+    <row r="8">
+</row>
+    <row r="9">
+</row>
+    <row r="10">
+</row>
+    <row r="11">
+</row>
+    <row r="12">
+</row>
+    <row r="13">
+</row>
+    <row r="14">
+</row>
+    <row r="15">
+</row>
+    <row r="16">
+</row>
+    <row r="17">
+</row>
+    <row r="18">
+</row>
+    <row r="19">
+</row>
+    <row r="20">
+</row>
+    <row r="21">
+</row>
+    <row r="22">
+</row>
+    <row r="23">
+</row>
+    <row r="24">
+</row>
+    <row r="25">
+</row>
+    <row r="26">
+</row>
+    <row r="27">
+</row>
+    <row r="28">
+</row>
+    <row r="29">
+</row>
+    <row r="30">
+</row>
+    <row r="31">
+</row>
+    <row r="32">
+</row>
+    <row r="33">
+</row>
+    <row r="34">
+</row>
+    <row r="35">
+</row>
+    <row r="36">
+</row>
+    <row r="37">
+</row>
+    <row r="38">
+</row>
+    <row r="39">
+</row>
+    <row r="40">
+</row>
+    <row r="41">
+</row>
+    <row r="42">
+</row>
+    <row r="43">
+</row>
+    <row r="44">
+</row>
+    <row r="45">
+</row>
+    <row r="46">
+</row>
+    <row r="47">
+</row>
+    <row r="48">
+</row>
+    <row r="49">
+</row>
+    <row r="50">
+</row>
+    <row r="51">
+</row>
+    <row r="52">
+</row>
+    <row r="53">
+</row>
+    <row r="54">
+</row>
+    <row r="55">
+</row>
+    <row r="56">
+</row>
+    <row r="57">
+</row>
+    <row r="58">
+</row>
+    <row r="59">
+</row>
+    <row r="60">
+</row>
+    <row r="61">
+</row>
+    <row r="62">
+</row>
+    <row r="63">
+</row>
+    <row r="64">
+</row>
+    <row r="65">
+</row>
+    <row r="66">
+</row>
+    <row r="67">
+</row>
+    <row r="68">
+</row>
+    <row r="69">
+</row>
+    <row r="70">
+</row>
+    <row r="71">
+</row>
+    <row r="72">
+</row>
+    <row r="73">
+</row>
+    <row r="74">
+</row>
+    <row r="75">
+</row>
+    <row r="76">
+</row>
+    <row r="77">
+</row>
+    <row r="78">
+</row>
+    <row r="79">
+</row>
+    <row r="80">
+</row>
+    <row r="81">
+</row>
+    <row r="82">
+</row>
+    <row r="83">
+</row>
+    <row r="84">
+</row>
+    <row r="85">
+</row>
+    <row r="86">
+</row>
+    <row r="87">
+</row>
+    <row r="88">
+</row>
+    <row r="89">
+</row>
+    <row r="90">
+</row>
+    <row r="91">
+</row>
+    <row r="92">
+</row>
+    <row r="93">
+</row>
+    <row r="94">
+</row>
+    <row r="95">
+</row>
+    <row r="96">
+</row>
+    <row r="97">
+</row>
+    <row r="98">
+</row>
+    <row r="99">
+</row>
+    <row r="100">
+</row>
+    <row r="101">
+</row>
+    <row r="102">
+</row>
+    <row r="103">
+</row>
+    <row r="104">
+</row>
+    <row r="105">
+</row>
+    <row r="106">
+</row>
+    <row r="107">
+</row>
+    <row r="108">
+</row>
+    <row r="109">
+</row>
+    <row r="110">
+</row>
+    <row r="111">
+</row>
+    <row r="112">
+</row>
+    <row r="113">
+</row>
+    <row r="114">
+</row>
+    <row r="115">
+</row>
+    <row r="116">
+</row>
+    <row r="117">
+</row>
+    <row r="118">
+</row>
+    <row r="119">
+</row>
+    <row r="120">
+</row>
+    <row r="121">
+</row>
+    <row r="122">
+</row>
+    <row r="123">
+</row>
+    <row r="124">
+</row>
+    <row r="125">
+</row>
+    <row r="126">
+</row>
+    <row r="127">
+</row>
+    <row r="128">
+</row>
+    <row r="129">
+</row>
+    <row r="130">
+</row>
+    <row r="131">
+</row>
+    <row r="132">
+</row>
+    <row r="133">
+</row>
+    <row r="134">
+</row>
+    <row r="135">
+</row>
+    <row r="136">
+</row>
+    <row r="137">
+</row>
+    <row r="138">
+</row>
+    <row r="139">
+</row>
+    <row r="140">
+</row>
+    <row r="141">
+</row>
+    <row r="142">
+</row>
+    <row r="143">
+</row>
+    <row r="144">
+</row>
+    <row r="145">
+</row>
+    <row r="146">
+</row>
+    <row r="147">
+</row>
+    <row r="148">
+</row>
+    <row r="149">
+</row>
+    <row r="150">
+</row>
+    <row r="151">
+</row>
+    <row r="152">
+</row>
+    <row r="153">
+</row>
+    <row r="154">
+</row>
+    <row r="155">
+</row>
+    <row r="156">
+</row>
+    <row r="157">
+</row>
+    <row r="158">
+</row>
+    <row r="159">
+</row>
+    <row r="160">
+</row>
+    <row r="161">
+</row>
+    <row r="162">
+</row>
+    <row r="163">
+</row>
+    <row r="164">
+</row>
+    <row r="165">
+</row>
+    <row r="166">
+</row>
+    <row r="167">
+</row>
+    <row r="168">
+</row>
+    <row r="169">
+</row>
+    <row r="170">
+</row>
+    <row r="171">
+</row>
+    <row r="172">
+</row>
+    <row r="173">
+</row>
+    <row r="174">
+</row>
+    <row r="175">
+</row>
+    <row r="176">
+</row>
+    <row r="177">
+</row>
+    <row r="178">
+</row>
+    <row r="179">
+</row>
+    <row r="180">
+</row>
+    <row r="181">
+</row>
+    <row r="182">
+</row>
+    <row r="183">
+</row>
+    <row r="184">
+</row>
+    <row r="185">
+</row>
+    <row r="186">
+</row>
+    <row r="187">
+</row>
+    <row r="188">
+</row>
+    <row r="189">
+</row>
+    <row r="190">
+</row>
+    <row r="191">
+</row>
+    <row r="192">
+</row>
+    <row r="193">
+</row>
+    <row r="194">
+</row>
+    <row r="195">
+</row>
+    <row r="196">
+</row>
+    <row r="197">
+</row>
+    <row r="198">
+</row>
+    <row r="199">
+</row>
+    <row r="200">
+</row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.833333333333334"/>
+    <col min="2" max="2" width="10.833333333333334"/>
+    <col min="3" max="3" width="10.833333333333334"/>
+    <col min="4" max="4" width="10.833333333333334"/>
+    <col min="5" max="5" width="10.833333333333334"/>
+    <col min="6" max="6" width="10.833333333333334"/>
+    <col min="7" max="7" width="10.833333333333334"/>
+    <col min="8" max="8" width="10.833333333333334"/>
+    <col min="9" max="9" width="10.833333333333334"/>
+    <col min="10" max="10" width="10.833333333333334"/>
+    <col min="11" max="11" width="10.833333333333334"/>
+    <col min="12" max="12" width="10.833333333333334"/>
+    <col min="13" max="13" width="10.833333333333334"/>
+    <col min="14" max="14" width="10.833333333333334"/>
+    <col min="15" max="15" width="10.833333333333334"/>
+    <col min="16" max="16" width="10.833333333333334"/>
+    <col min="17" max="17" width="10.833333333333334"/>
+    <col min="18" max="18" width="10.833333333333334"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="35"/>
+      <c r="B2" s="8" t="n">
+        <v>1750.5</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="18"/>
+      <c r="J2" s="3"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="n">
+        <v>43889.0</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="C3" s="15" t="n">
+        <v>3750.5</v>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>2.0798</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>960.19</v>
+      </c>
+      <c r="F3" s="15">
+        <f>D3*E3</f>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="28">
+        <f>G3/C3</f>
+      </c>
+      <c r="J3" s="15" t="n">
+        <v>478.0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="15">
+        <f>C3+B4</f>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>2.0711</v>
+      </c>
+      <c r="E4" s="15" t="n">
+        <v>1871.11</v>
+      </c>
+      <c r="F4" s="15">
+        <f>D4*E4</f>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>-124.75</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>-0.0312</v>
+      </c>
+    </row>
+    <row r="5">
+</row>
+    <row r="6">
+</row>
+    <row r="7">
+</row>
+    <row r="8">
+</row>
+    <row r="9">
+</row>
+    <row r="10">
+</row>
+    <row r="11">
+</row>
+    <row r="12">
+</row>
+    <row r="13">
+</row>
+    <row r="14">
+</row>
+    <row r="15">
+</row>
+    <row r="16">
+</row>
+    <row r="17">
+</row>
+    <row r="18">
+</row>
+    <row r="19">
+</row>
+    <row r="20">
+</row>
+    <row r="21">
+</row>
+    <row r="22">
+</row>
+    <row r="23">
+</row>
+    <row r="24">
+</row>
+    <row r="25">
+</row>
+    <row r="26">
+</row>
+    <row r="27">
+</row>
+    <row r="28">
+</row>
+    <row r="29">
+</row>
+    <row r="30">
+</row>
+    <row r="31">
+</row>
+    <row r="32">
+</row>
+    <row r="33">
+</row>
+    <row r="34">
+</row>
+    <row r="35">
+</row>
+    <row r="36">
+</row>
+    <row r="37">
+</row>
+    <row r="38">
+</row>
+    <row r="39">
+</row>
+    <row r="40">
+</row>
+    <row r="41">
+</row>
+    <row r="42">
+</row>
+    <row r="43">
+</row>
+    <row r="44">
+</row>
+    <row r="45">
+</row>
+    <row r="46">
+</row>
+    <row r="47">
+</row>
+    <row r="48">
+</row>
+    <row r="49">
+</row>
+    <row r="50">
+</row>
+    <row r="51">
+</row>
+    <row r="52">
+</row>
+    <row r="53">
+</row>
+    <row r="54">
+</row>
+    <row r="55">
+</row>
+    <row r="56">
+</row>
+    <row r="57">
+</row>
+    <row r="58">
+</row>
+    <row r="59">
+</row>
+    <row r="60">
+</row>
+    <row r="61">
+</row>
+    <row r="62">
+</row>
+    <row r="63">
+</row>
+    <row r="64">
+</row>
+    <row r="65">
+</row>
+    <row r="66">
+</row>
+    <row r="67">
+</row>
+    <row r="68">
+</row>
+    <row r="69">
+</row>
+    <row r="70">
+</row>
+    <row r="71">
+</row>
+    <row r="72">
+</row>
+    <row r="73">
+</row>
+    <row r="74">
+</row>
+    <row r="75">
+</row>
+    <row r="76">
+</row>
+    <row r="77">
+</row>
+    <row r="78">
+</row>
+    <row r="79">
+</row>
+    <row r="80">
+</row>
+    <row r="81">
+</row>
+    <row r="82">
+</row>
+    <row r="83">
+</row>
+    <row r="84">
+</row>
+    <row r="85">
+</row>
+    <row r="86">
+</row>
+    <row r="87">
+</row>
+    <row r="88">
+</row>
+    <row r="89">
+</row>
+    <row r="90">
+</row>
+    <row r="91">
+</row>
+    <row r="92">
+</row>
+    <row r="93">
+</row>
+    <row r="94">
+</row>
+    <row r="95">
+</row>
+    <row r="96">
+</row>
+    <row r="97">
+</row>
+    <row r="98">
+</row>
+    <row r="99">
+</row>
+    <row r="100">
+</row>
+    <row r="101">
+</row>
+    <row r="102">
+</row>
+    <row r="103">
+</row>
+    <row r="104">
+</row>
+    <row r="105">
+</row>
+    <row r="106">
+</row>
+    <row r="107">
+</row>
+    <row r="108">
+</row>
+    <row r="109">
+</row>
+    <row r="110">
+</row>
+    <row r="111">
+</row>
+    <row r="112">
+</row>
+    <row r="113">
+</row>
+    <row r="114">
+</row>
+    <row r="115">
+</row>
+    <row r="116">
+</row>
+    <row r="117">
+</row>
+    <row r="118">
+</row>
+    <row r="119">
+</row>
+    <row r="120">
+</row>
+    <row r="121">
+</row>
+    <row r="122">
+</row>
+    <row r="123">
+</row>
+    <row r="124">
+</row>
+    <row r="125">
+</row>
+    <row r="126">
+</row>
+    <row r="127">
+</row>
+    <row r="128">
+</row>
+    <row r="129">
+</row>
+    <row r="130">
+</row>
+    <row r="131">
+</row>
+    <row r="132">
+</row>
+    <row r="133">
+</row>
+    <row r="134">
+</row>
+    <row r="135">
+</row>
+    <row r="136">
+</row>
+    <row r="137">
+</row>
+    <row r="138">
+</row>
+    <row r="139">
+</row>
+    <row r="140">
+</row>
+    <row r="141">
+</row>
+    <row r="142">
+</row>
+    <row r="143">
+</row>
+    <row r="144">
+</row>
+    <row r="145">
+</row>
+    <row r="146">
+</row>
+    <row r="147">
+</row>
+    <row r="148">
+</row>
+    <row r="149">
+</row>
+    <row r="150">
+</row>
+    <row r="151">
+</row>
+    <row r="152">
+</row>
+    <row r="153">
+</row>
+    <row r="154">
+</row>
+    <row r="155">
+</row>
+    <row r="156">
+</row>
+    <row r="157">
+</row>
+    <row r="158">
+</row>
+    <row r="159">
+</row>
+    <row r="160">
+</row>
+    <row r="161">
+</row>
+    <row r="162">
+</row>
+    <row r="163">
+</row>
+    <row r="164">
+</row>
+    <row r="165">
+</row>
+    <row r="166">
+</row>
+    <row r="167">
+</row>
+    <row r="168">
+</row>
+    <row r="169">
+</row>
+    <row r="170">
+</row>
+    <row r="171">
+</row>
+    <row r="172">
+</row>
+    <row r="173">
+</row>
+    <row r="174">
+</row>
+    <row r="175">
+</row>
+    <row r="176">
+</row>
+    <row r="177">
+</row>
+    <row r="178">
+</row>
+    <row r="179">
+</row>
+    <row r="180">
+</row>
+    <row r="181">
+</row>
+    <row r="182">
+</row>
+    <row r="183">
+</row>
+    <row r="184">
+</row>
+    <row r="185">
+</row>
+    <row r="186">
+</row>
+    <row r="187">
+</row>
+    <row r="188">
+</row>
+    <row r="189">
+</row>
+    <row r="190">
+</row>
+    <row r="191">
+</row>
+    <row r="192">
+</row>
+    <row r="193">
+</row>
+    <row r="194">
+</row>
+    <row r="195">
+</row>
+    <row r="196">
+</row>
+    <row r="197">
+</row>
+    <row r="198">
+</row>
+    <row r="199">
+</row>
+    <row r="200">
+</row>
+    <row r="201">
+</row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.833333333333334"/>
+    <col min="2" max="2" width="10.833333333333334"/>
+    <col min="3" max="3" width="10.833333333333334"/>
+    <col min="4" max="4" width="10.833333333333334"/>
+    <col min="5" max="5" width="10.833333333333334"/>
+    <col min="6" max="6" width="10.833333333333334"/>
+    <col min="7" max="7" width="10.833333333333334"/>
+    <col min="8" max="8" width="10.833333333333334"/>
+    <col min="9" max="9" width="10.833333333333334"/>
+    <col min="10" max="10" width="10.833333333333334"/>
+    <col min="11" max="11" width="10.833333333333334"/>
+    <col min="12" max="12" width="10.833333333333334"/>
+    <col min="13" max="13" width="10.833333333333334"/>
+    <col min="14" max="14" width="10.833333333333334"/>
+    <col min="15" max="15" width="10.833333333333334"/>
+    <col min="16" max="16" width="10.833333333333334"/>
+    <col min="17" max="17" width="10.833333333333334"/>
+    <col min="18" max="18" width="10.833333333333334"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="15" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>5000.0</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>4970.18</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>501186.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="15">
+        <f>C2+B3</f>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>1.1109</v>
+      </c>
+      <c r="E3" s="15" t="n">
+        <v>4970.18</v>
+      </c>
+      <c r="F3" s="15">
+        <f>D3*E3</f>
+      </c>
+      <c r="G3" s="15" t="n">
+        <v>521.37</v>
+      </c>
+      <c r="H3" s="16" t="n">
+        <v>0.1042</v>
+      </c>
+    </row>
+    <row r="4">
+</row>
+    <row r="5">
+</row>
+    <row r="6">
+</row>
+    <row r="7">
+</row>
+    <row r="8">
+</row>
+    <row r="9">
+</row>
+    <row r="10">
+</row>
+    <row r="11">
+</row>
+    <row r="12">
+</row>
+    <row r="13">
+</row>
+    <row r="14">
+</row>
+    <row r="15">
+</row>
+    <row r="16">
+</row>
+    <row r="17">
+</row>
+    <row r="18">
+</row>
+    <row r="19">
+</row>
+    <row r="20">
+</row>
+    <row r="21">
+</row>
+    <row r="22">
+</row>
+    <row r="23">
+</row>
+    <row r="24">
+</row>
+    <row r="25">
+</row>
+    <row r="26">
+</row>
+    <row r="27">
+</row>
+    <row r="28">
+</row>
+    <row r="29">
+</row>
+    <row r="30">
+</row>
+    <row r="31">
+</row>
+    <row r="32">
+</row>
+    <row r="33">
+</row>
+    <row r="34">
+</row>
+    <row r="35">
+</row>
+    <row r="36">
+</row>
+    <row r="37">
+</row>
+    <row r="38">
+</row>
+    <row r="39">
+</row>
+    <row r="40">
+</row>
+    <row r="41">
+</row>
+    <row r="42">
+</row>
+    <row r="43">
+</row>
+    <row r="44">
+</row>
+    <row r="45">
+</row>
+    <row r="46">
+</row>
+    <row r="47">
+</row>
+    <row r="48">
+</row>
+    <row r="49">
+</row>
+    <row r="50">
+</row>
+    <row r="51">
+</row>
+    <row r="52">
+</row>
+    <row r="53">
+</row>
+    <row r="54">
+</row>
+    <row r="55">
+</row>
+    <row r="56">
+</row>
+    <row r="57">
+</row>
+    <row r="58">
+</row>
+    <row r="59">
+</row>
+    <row r="60">
+</row>
+    <row r="61">
+</row>
+    <row r="62">
+</row>
+    <row r="63">
+</row>
+    <row r="64">
+</row>
+    <row r="65">
+</row>
+    <row r="66">
+</row>
+    <row r="67">
+</row>
+    <row r="68">
+</row>
+    <row r="69">
+</row>
+    <row r="70">
+</row>
+    <row r="71">
+</row>
+    <row r="72">
+</row>
+    <row r="73">
+</row>
+    <row r="74">
+</row>
+    <row r="75">
+</row>
+    <row r="76">
+</row>
+    <row r="77">
+</row>
+    <row r="78">
+</row>
+    <row r="79">
+</row>
+    <row r="80">
+</row>
+    <row r="81">
+</row>
+    <row r="82">
+</row>
+    <row r="83">
+</row>
+    <row r="84">
+</row>
+    <row r="85">
+</row>
+    <row r="86">
+</row>
+    <row r="87">
+</row>
+    <row r="88">
+</row>
+    <row r="89">
+</row>
+    <row r="90">
+</row>
+    <row r="91">
+</row>
+    <row r="92">
+</row>
+    <row r="93">
+</row>
+    <row r="94">
+</row>
+    <row r="95">
+</row>
+    <row r="96">
+</row>
+    <row r="97">
+</row>
+    <row r="98">
+</row>
+    <row r="99">
+</row>
+    <row r="100">
+</row>
+    <row r="101">
+</row>
+    <row r="102">
+</row>
+    <row r="103">
+</row>
+    <row r="104">
+</row>
+    <row r="105">
+</row>
+    <row r="106">
+</row>
+    <row r="107">
+</row>
+    <row r="108">
+</row>
+    <row r="109">
+</row>
+    <row r="110">
+</row>
+    <row r="111">
+</row>
+    <row r="112">
+</row>
+    <row r="113">
+</row>
+    <row r="114">
+</row>
+    <row r="115">
+</row>
+    <row r="116">
+</row>
+    <row r="117">
+</row>
+    <row r="118">
+</row>
+    <row r="119">
+</row>
+    <row r="120">
+</row>
+    <row r="121">
+</row>
+    <row r="122">
+</row>
+    <row r="123">
+</row>
+    <row r="124">
+</row>
+    <row r="125">
+</row>
+    <row r="126">
+</row>
+    <row r="127">
+</row>
+    <row r="128">
+</row>
+    <row r="129">
+</row>
+    <row r="130">
+</row>
+    <row r="131">
+</row>
+    <row r="132">
+</row>
+    <row r="133">
+</row>
+    <row r="134">
+</row>
+    <row r="135">
+</row>
+    <row r="136">
+</row>
+    <row r="137">
+</row>
+    <row r="138">
+</row>
+    <row r="139">
+</row>
+    <row r="140">
+</row>
+    <row r="141">
+</row>
+    <row r="142">
+</row>
+    <row r="143">
+</row>
+    <row r="144">
+</row>
+    <row r="145">
+</row>
+    <row r="146">
+</row>
+    <row r="147">
+</row>
+    <row r="148">
+</row>
+    <row r="149">
+</row>
+    <row r="150">
+</row>
+    <row r="151">
+</row>
+    <row r="152">
+</row>
+    <row r="153">
+</row>
+    <row r="154">
+</row>
+    <row r="155">
+</row>
+    <row r="156">
+</row>
+    <row r="157">
+</row>
+    <row r="158">
+</row>
+    <row r="159">
+</row>
+    <row r="160">
+</row>
+    <row r="161">
+</row>
+    <row r="162">
+</row>
+    <row r="163">
+</row>
+    <row r="164">
+</row>
+    <row r="165">
+</row>
+    <row r="166">
+</row>
+    <row r="167">
+</row>
+    <row r="168">
+</row>
+    <row r="169">
+</row>
+    <row r="170">
+</row>
+    <row r="171">
+</row>
+    <row r="172">
+</row>
+    <row r="173">
+</row>
+    <row r="174">
+</row>
+    <row r="175">
+</row>
+    <row r="176">
+</row>
+    <row r="177">
+</row>
+    <row r="178">
+</row>
+    <row r="179">
+</row>
+    <row r="180">
+</row>
+    <row r="181">
+</row>
+    <row r="182">
+</row>
+    <row r="183">
+</row>
+    <row r="184">
+</row>
+    <row r="185">
+</row>
+    <row r="186">
+</row>
+    <row r="187">
+</row>
+    <row r="188">
+</row>
+    <row r="189">
+</row>
+    <row r="190">
+</row>
+    <row r="191">
+</row>
+    <row r="192">
+</row>
+    <row r="193">
+</row>
+    <row r="194">
+</row>
+    <row r="195">
+</row>
+    <row r="196">
+</row>
+    <row r="197">
+</row>
+    <row r="198">
+</row>
+    <row r="199">
+</row>
+    <row r="200">
+</row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.0" baseColWidth="10"/>
+  <cols>
+    <col min="1" max="1" width="10.833333333333334"/>
+    <col min="2" max="2" width="10.833333333333334"/>
+    <col min="3" max="3" width="10.833333333333334"/>
+    <col min="4" max="4" width="10.833333333333334"/>
+    <col min="5" max="5" width="10.833333333333334"/>
+    <col min="6" max="6" width="10.833333333333334"/>
+    <col min="7" max="7" width="10.833333333333334"/>
+    <col min="8" max="8" width="10.833333333333334"/>
+    <col min="9" max="9" width="10.833333333333334"/>
+    <col min="10" max="10" width="10.833333333333334"/>
+    <col min="11" max="11" width="10.833333333333334"/>
+    <col min="12" max="12" width="10.833333333333334"/>
+    <col min="13" max="13" width="10.833333333333334"/>
+    <col min="14" max="14" width="10.833333333333334"/>
+    <col min="15" max="15" width="10.833333333333334"/>
+    <col min="16" max="16" width="10.833333333333334"/>
+    <col min="17" max="17" width="10.833333333333334"/>
+    <col min="18" max="18" width="10.833333333333334"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="33"/>
+      <c r="B2" s="15" t="n">
+        <v>5050.0</v>
+      </c>
+      <c r="C2" s="15" t="n">
+        <v>5050.0</v>
+      </c>
+      <c r="D2" s="15" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="15" t="n">
+        <v>5001.81</v>
+      </c>
+      <c r="F2" s="15">
+        <f>E2*D2</f>
+      </c>
+      <c r="G2" s="15">
+        <f>F2-C2</f>
+      </c>
+      <c r="H2" s="13">
+        <f>G2/C2</f>
+      </c>
+      <c r="I2" s="27" t="n">
+        <v>43647.0</v>
+      </c>
+      <c r="J2" s="15" t="n">
+        <v>501085.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B3" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C3" s="15">
+        <f>C2+B3</f>
+      </c>
+      <c r="D3" s="15" t="n">
+        <v>1.2581</v>
+      </c>
+      <c r="E3" s="8" t="n">
+        <v>5001.81</v>
+      </c>
+      <c r="F3" s="15">
+        <f>E3*D3</f>
+      </c>
+      <c r="G3" s="8">
+        <f>F3-C3</f>
+      </c>
+      <c r="H3" s="14">
+        <f>G3/C3</f>
+      </c>
+    </row>
+    <row r="4">
+</row>
+    <row r="5">
+</row>
+    <row r="6">
+</row>
     <row r="7">
 </row>
     <row r="8">
@@ -13169,7 +14800,7 @@
       <c r="S1" s="11"/>
     </row>
     <row r="2">
-      <c r="A2" s="21" t="n">
+      <c r="A2" s="19" t="n">
         <v>43895.0</v>
       </c>
       <c r="B2" s="8" t="n">
@@ -13187,13 +14818,13 @@
       <c r="F2" s="5">
         <f>D2*E2</f>
       </c>
-      <c r="G2" s="22">
+      <c r="G2" s="20">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="23">
+      <c r="H2" s="21">
         <f>G2/C2</f>
       </c>
-      <c r="I2" s="20"/>
+      <c r="I2" s="18"/>
       <c r="J2" s="8" t="n">
         <v>501301.0</v>
       </c>
@@ -13210,7 +14841,7 @@
       <c r="S2" s="11"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43896.0</v>
       </c>
       <c r="B3" s="8" t="n">
@@ -13228,10 +14859,10 @@
       <c r="F3" s="5">
         <f>D3*E3</f>
       </c>
-      <c r="G3" s="22">
+      <c r="G3" s="20">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="23">
+      <c r="H3" s="21">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="14"/>
@@ -13247,7 +14878,7 @@
       <c r="S3" s="11"/>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43899.0</v>
       </c>
       <c r="B4" s="8" t="n">
@@ -13265,10 +14896,10 @@
       <c r="F4" s="5">
         <f>D4*E4</f>
       </c>
-      <c r="G4" s="22">
+      <c r="G4" s="20">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="23">
+      <c r="H4" s="21">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="14"/>
@@ -13284,7 +14915,7 @@
       <c r="S4" s="11"/>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43908.0</v>
       </c>
       <c r="B5" s="8" t="n">
@@ -13302,16 +14933,16 @@
       <c r="F5" s="5">
         <f>D5*E5</f>
       </c>
-      <c r="G5" s="22">
+      <c r="G5" s="20">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="23">
+      <c r="H5" s="21">
         <f>G5/C5</f>
       </c>
       <c r="I5" s="14"/>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43909.0</v>
       </c>
       <c r="B6" s="8" t="n">
@@ -13329,16 +14960,16 @@
       <c r="F6" s="5">
         <f>D6*E6</f>
       </c>
-      <c r="G6" s="22">
+      <c r="G6" s="20">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="23">
+      <c r="H6" s="21">
         <f>G6/C6</f>
       </c>
       <c r="I6" s="14"/>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43916.0</v>
       </c>
       <c r="B7" s="8" t="n">
@@ -13356,16 +14987,16 @@
       <c r="F7" s="5">
         <f>D7*E7</f>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="20">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="23">
+      <c r="H7" s="21">
         <f>G7/C7</f>
       </c>
       <c r="I7" s="14"/>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B8" s="15" t="n">
@@ -13377,21 +15008,21 @@
       <c r="D8" s="8" t="n">
         <v>1.0967</v>
       </c>
-      <c r="E8" s="22" t="n">
+      <c r="E8" s="20" t="n">
         <v>6531.1</v>
       </c>
       <c r="F8" s="5">
         <f>D8*E8</f>
       </c>
-      <c r="G8" s="22">
+      <c r="G8" s="20">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="23">
+      <c r="H8" s="21">
         <f>G8/C8</f>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -13409,15 +15040,15 @@
       <c r="F9" s="5">
         <f>D9*E9</f>
       </c>
-      <c r="G9" s="22">
+      <c r="G9" s="20">
         <f>F9-C9</f>
       </c>
-      <c r="H9" s="23">
+      <c r="H9" s="21">
         <f>G9/C9</f>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B10" s="15" t="n">
@@ -13438,8 +15069,8 @@
       <c r="G10" s="5" t="n">
         <v>306.83</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <v>3.92</v>
+      <c r="H10" s="22" t="n">
+        <v>0.0392</v>
       </c>
     </row>
     <row r="11">
@@ -14482,7 +16113,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="24"/>
+      <c r="A2" s="23"/>
       <c r="B2" s="8" t="n">
         <v>2000.0</v>
       </c>
@@ -14499,7 +16130,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="25" t="n">
+      <c r="A3" s="24" t="n">
         <v>43592.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -14514,7 +16145,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="25" t="n">
+      <c r="A4" s="24" t="n">
         <v>43746.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -14529,7 +16160,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="25" t="n">
+      <c r="A5" s="24" t="n">
         <v>43774.0</v>
       </c>
       <c r="B5" s="8" t="n">
@@ -14544,7 +16175,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="25" t="n">
+      <c r="A6" s="24" t="n">
         <v>43791.0</v>
       </c>
       <c r="B6" s="8" t="n">
@@ -14559,7 +16190,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="24" t="n">
         <v>43804.0</v>
       </c>
       <c r="B7" s="8" t="n">
@@ -14574,7 +16205,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="24" t="n">
         <v>43836.0</v>
       </c>
       <c r="B8" s="8" t="n">
@@ -14589,7 +16220,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="24" t="n">
         <v>43866.0</v>
       </c>
       <c r="B9" s="8" t="n">
@@ -14604,7 +16235,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="25" t="n">
+      <c r="A10" s="24" t="n">
         <v>43889.0</v>
       </c>
       <c r="B10" s="8" t="n">
@@ -14633,7 +16264,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="24" t="n">
         <v>43895.0</v>
       </c>
       <c r="B11" s="8" t="n">
@@ -14662,7 +16293,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="25" t="n">
+      <c r="A12" s="24" t="n">
         <v>43899.0</v>
       </c>
       <c r="B12" s="8" t="n">
@@ -14691,7 +16322,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="25" t="n">
+      <c r="A13" s="24" t="n">
         <v>43902.0</v>
       </c>
       <c r="B13" s="8" t="n">
@@ -14720,7 +16351,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="25" t="n">
+      <c r="A14" s="24" t="n">
         <v>43909.0</v>
       </c>
       <c r="B14" s="8" t="n">
@@ -14749,7 +16380,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="25" t="n">
+      <c r="A15" s="24" t="n">
         <v>43913.0</v>
       </c>
       <c r="B15" s="8" t="n">
@@ -14778,7 +16409,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="25" t="n">
+      <c r="A16" s="24" t="n">
         <v>43916.0</v>
       </c>
       <c r="B16" s="8" t="n">
@@ -14807,7 +16438,7 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="25" t="n">
+      <c r="A17" s="24" t="n">
         <v>43920.0</v>
       </c>
       <c r="B17" s="8" t="n">
@@ -14837,7 +16468,7 @@
       <c r="J17" s="11"/>
     </row>
     <row r="18">
-      <c r="A18" s="25" t="n">
+      <c r="A18" s="24" t="n">
         <v>43923.0</v>
       </c>
       <c r="B18" s="8" t="n">
@@ -14870,7 +16501,7 @@
       <c r="M18" s="11"/>
     </row>
     <row r="19">
-      <c r="A19" s="25" t="n">
+      <c r="A19" s="24" t="n">
         <v>43930.0</v>
       </c>
       <c r="B19" s="8" t="n">
@@ -14903,7 +16534,7 @@
       <c r="M19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="25" t="n">
+      <c r="A20" s="24" t="n">
         <v>43931.0</v>
       </c>
       <c r="B20" s="8" t="n">
@@ -14936,7 +16567,7 @@
       <c r="M20" s="11"/>
     </row>
     <row r="21">
-      <c r="A21" s="25" t="n">
+      <c r="A21" s="24" t="n">
         <v>43937.0</v>
       </c>
       <c r="B21" s="8" t="n">
@@ -14966,7 +16597,7 @@
       <c r="M21" s="11"/>
     </row>
     <row r="22">
-      <c r="A22" s="25" t="n">
+      <c r="A22" s="24" t="n">
         <v>43944.0</v>
       </c>
       <c r="B22" s="8" t="n">
@@ -14995,17 +16626,17 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="25" t="n">
-        <v>43949.0</v>
+      <c r="A23" s="24" t="n">
+        <v>43951.0</v>
       </c>
       <c r="B23" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="C23" s="15" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C23" s="8" t="n">
         <v>15500.0</v>
       </c>
       <c r="D23" s="15" t="n">
-        <v>0.8498</v>
+        <v>0.8698</v>
       </c>
       <c r="E23" s="8" t="n">
         <v>18505.45</v>
@@ -15013,743 +16644,720 @@
       <c r="F23" s="8">
         <f>D23*E23</f>
       </c>
-      <c r="G23" s="8">
-        <f>F23-C24-B23</f>
-      </c>
-      <c r="H23" s="14">
-        <f>G23/C24</f>
+      <c r="G23" s="8" t="n">
+        <v>596.04</v>
+      </c>
+      <c r="H23" s="25" t="n">
+        <v>0.0384</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="25" t="n">
-        <v>43951.0</v>
-      </c>
-      <c r="B24" s="8" t="n">
-        <v>250.0</v>
-      </c>
-      <c r="C24" s="8" t="n">
-        <v>15500.0</v>
-      </c>
-      <c r="D24" s="15" t="n">
-        <v>0.8698</v>
-      </c>
-      <c r="E24" s="8" t="n">
-        <v>18505.45</v>
-      </c>
-      <c r="F24" s="8">
-        <f>D24*E24</f>
-      </c>
-      <c r="G24" s="8" t="n">
-        <v>596.04</v>
-      </c>
-      <c r="H24" s="26" t="n">
-        <v>1.52</v>
-      </c>
+      <c r="A24" s="23"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25">
-      <c r="A25" s="24"/>
+      <c r="A25" s="23"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
     <row r="26">
-      <c r="A26" s="24"/>
+      <c r="A26" s="23"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
     <row r="27">
-      <c r="A27" s="24"/>
+      <c r="A27" s="23"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
     <row r="28">
-      <c r="A28" s="24"/>
+      <c r="A28" s="23"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
     </row>
     <row r="29">
-      <c r="A29" s="24"/>
+      <c r="A29" s="23"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
     </row>
     <row r="30">
-      <c r="A30" s="24"/>
+      <c r="A30" s="23"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
     </row>
     <row r="31">
-      <c r="A31" s="24"/>
+      <c r="A31" s="23"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
     </row>
     <row r="32">
-      <c r="A32" s="24"/>
+      <c r="A32" s="23"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
     <row r="33">
-      <c r="A33" s="24"/>
+      <c r="A33" s="23"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
     <row r="34">
-      <c r="A34" s="24"/>
+      <c r="A34" s="23"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35">
-      <c r="A35" s="24"/>
+      <c r="A35" s="23"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
     </row>
     <row r="36">
-      <c r="A36" s="24"/>
+      <c r="A36" s="23"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
     </row>
     <row r="37">
-      <c r="A37" s="24"/>
+      <c r="A37" s="23"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
     </row>
     <row r="38">
-      <c r="A38" s="24"/>
+      <c r="A38" s="23"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
     <row r="39">
-      <c r="A39" s="24"/>
+      <c r="A39" s="23"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
     <row r="40">
-      <c r="A40" s="24"/>
+      <c r="A40" s="23"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
     </row>
     <row r="41">
-      <c r="A41" s="24"/>
+      <c r="A41" s="23"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
     <row r="42">
-      <c r="A42" s="24"/>
+      <c r="A42" s="23"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
     <row r="43">
-      <c r="A43" s="24"/>
+      <c r="A43" s="23"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
     <row r="44">
-      <c r="A44" s="24"/>
+      <c r="A44" s="23"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
     <row r="45">
-      <c r="A45" s="24"/>
+      <c r="A45" s="23"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
     <row r="46">
-      <c r="A46" s="24"/>
+      <c r="A46" s="23"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
     </row>
     <row r="47">
-      <c r="A47" s="24"/>
+      <c r="A47" s="23"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
     <row r="48">
-      <c r="A48" s="24"/>
+      <c r="A48" s="23"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
     <row r="49">
-      <c r="A49" s="24"/>
+      <c r="A49" s="23"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
     <row r="50">
-      <c r="A50" s="24"/>
+      <c r="A50" s="23"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
     <row r="51">
-      <c r="A51" s="24"/>
+      <c r="A51" s="23"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
     <row r="52">
-      <c r="A52" s="24"/>
+      <c r="A52" s="23"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
     <row r="53">
-      <c r="A53" s="24"/>
+      <c r="A53" s="23"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
     <row r="54">
-      <c r="A54" s="24"/>
+      <c r="A54" s="23"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
     <row r="55">
-      <c r="A55" s="24"/>
+      <c r="A55" s="23"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
     <row r="56">
-      <c r="A56" s="24"/>
+      <c r="A56" s="23"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
     <row r="57">
-      <c r="A57" s="24"/>
+      <c r="A57" s="23"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="24"/>
+      <c r="A58" s="23"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="24"/>
+      <c r="A59" s="23"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
     <row r="60">
-      <c r="A60" s="24"/>
+      <c r="A60" s="23"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
     <row r="61">
-      <c r="A61" s="24"/>
+      <c r="A61" s="23"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
     <row r="62">
-      <c r="A62" s="24"/>
+      <c r="A62" s="23"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
     </row>
     <row r="63">
-      <c r="A63" s="24"/>
+      <c r="A63" s="23"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>
     <row r="64">
-      <c r="A64" s="24"/>
+      <c r="A64" s="23"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
     </row>
     <row r="65">
-      <c r="A65" s="24"/>
+      <c r="A65" s="23"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
     </row>
     <row r="66">
-      <c r="A66" s="24"/>
+      <c r="A66" s="23"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
     </row>
     <row r="67">
-      <c r="A67" s="24"/>
+      <c r="A67" s="23"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
     </row>
     <row r="68">
-      <c r="A68" s="24"/>
+      <c r="A68" s="23"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
     </row>
     <row r="69">
-      <c r="A69" s="24"/>
+      <c r="A69" s="23"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
     </row>
     <row r="70">
-      <c r="A70" s="24"/>
+      <c r="A70" s="23"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
     </row>
     <row r="71">
-      <c r="A71" s="24"/>
+      <c r="A71" s="23"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
     </row>
     <row r="72">
-      <c r="A72" s="24"/>
+      <c r="A72" s="23"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
     </row>
     <row r="73">
-      <c r="A73" s="24"/>
+      <c r="A73" s="23"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
     </row>
     <row r="74">
-      <c r="A74" s="24"/>
+      <c r="A74" s="23"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
     </row>
     <row r="75">
-      <c r="A75" s="24"/>
+      <c r="A75" s="23"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
     </row>
     <row r="76">
-      <c r="A76" s="24"/>
+      <c r="A76" s="23"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
-      <c r="A77" s="24"/>
+      <c r="A77" s="23"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
     </row>
     <row r="78">
-      <c r="A78" s="24"/>
+      <c r="A78" s="23"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
     </row>
     <row r="79">
-      <c r="A79" s="24"/>
+      <c r="A79" s="23"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
     </row>
     <row r="80">
-      <c r="A80" s="24"/>
+      <c r="A80" s="23"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
     </row>
     <row r="81">
-      <c r="A81" s="24"/>
+      <c r="A81" s="23"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
     </row>
     <row r="82">
-      <c r="A82" s="24"/>
+      <c r="A82" s="23"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
     </row>
     <row r="83">
-      <c r="A83" s="24"/>
+      <c r="A83" s="23"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
     </row>
     <row r="84">
-      <c r="A84" s="24"/>
+      <c r="A84" s="23"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
     </row>
     <row r="85">
-      <c r="A85" s="24"/>
+      <c r="A85" s="26"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="27"/>
+      <c r="A86" s="26"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
     </row>
     <row r="87">
-      <c r="A87" s="27"/>
+      <c r="A87" s="26"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
     </row>
     <row r="88">
-      <c r="A88" s="27"/>
+      <c r="A88" s="26"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
     </row>
     <row r="89">
-      <c r="A89" s="27"/>
+      <c r="A89" s="26"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
     </row>
     <row r="90">
-      <c r="A90" s="27"/>
+      <c r="A90" s="26"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
     </row>
     <row r="91">
-      <c r="A91" s="27"/>
+      <c r="A91" s="26"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
     </row>
     <row r="92">
-      <c r="A92" s="27"/>
+      <c r="A92" s="26"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
     </row>
     <row r="93">
-      <c r="A93" s="27"/>
+      <c r="A93" s="26"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
     </row>
     <row r="94">
-      <c r="A94" s="27"/>
+      <c r="A94" s="26"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
-      <c r="A95" s="27"/>
+      <c r="A95" s="26"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
-      <c r="A96" s="27"/>
+      <c r="A96" s="26"/>
       <c r="B96" s="3"/>
       <c r="C96" s="3"/>
     </row>
     <row r="97">
-      <c r="A97" s="27"/>
+      <c r="A97" s="26"/>
       <c r="B97" s="3"/>
       <c r="C97" s="3"/>
     </row>
     <row r="98">
-      <c r="A98" s="27"/>
+      <c r="A98" s="26"/>
       <c r="B98" s="3"/>
       <c r="C98" s="3"/>
     </row>
     <row r="99">
-      <c r="A99" s="27"/>
+      <c r="A99" s="26"/>
       <c r="B99" s="3"/>
       <c r="C99" s="3"/>
     </row>
     <row r="100">
-      <c r="A100" s="27"/>
+      <c r="A100" s="26"/>
       <c r="B100" s="3"/>
       <c r="C100" s="3"/>
     </row>
     <row r="101">
-      <c r="A101" s="27"/>
+      <c r="A101" s="26"/>
       <c r="B101" s="3"/>
       <c r="C101" s="3"/>
     </row>
     <row r="102">
-      <c r="A102" s="27"/>
+      <c r="A102" s="26"/>
       <c r="B102" s="3"/>
       <c r="C102" s="3"/>
     </row>
     <row r="103">
-      <c r="A103" s="27"/>
+      <c r="A103" s="26"/>
       <c r="B103" s="3"/>
       <c r="C103" s="3"/>
     </row>
     <row r="104">
-      <c r="A104" s="27"/>
+      <c r="A104" s="26"/>
       <c r="B104" s="3"/>
       <c r="C104" s="3"/>
     </row>
     <row r="105">
-      <c r="A105" s="27"/>
+      <c r="A105" s="26"/>
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
     </row>
     <row r="106">
-      <c r="A106" s="27"/>
+      <c r="A106" s="26"/>
       <c r="B106" s="3"/>
       <c r="C106" s="3"/>
     </row>
     <row r="107">
-      <c r="A107" s="27"/>
+      <c r="A107" s="26"/>
       <c r="B107" s="3"/>
       <c r="C107" s="3"/>
     </row>
     <row r="108">
-      <c r="A108" s="27"/>
+      <c r="A108" s="26"/>
       <c r="B108" s="3"/>
       <c r="C108" s="3"/>
     </row>
     <row r="109">
-      <c r="A109" s="27"/>
+      <c r="A109" s="26"/>
       <c r="B109" s="3"/>
       <c r="C109" s="3"/>
     </row>
     <row r="110">
-      <c r="A110" s="27"/>
+      <c r="A110" s="26"/>
       <c r="B110" s="3"/>
       <c r="C110" s="3"/>
     </row>
     <row r="111">
-      <c r="A111" s="27"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
+      <c r="A111" s="26"/>
     </row>
     <row r="112">
-      <c r="A112" s="27"/>
+      <c r="A112" s="26"/>
     </row>
     <row r="113">
-      <c r="A113" s="27"/>
+      <c r="A113" s="26"/>
     </row>
     <row r="114">
-      <c r="A114" s="27"/>
+      <c r="A114" s="26"/>
     </row>
     <row r="115">
-      <c r="A115" s="27"/>
+      <c r="A115" s="26"/>
     </row>
     <row r="116">
-      <c r="A116" s="27"/>
+      <c r="A116" s="26"/>
     </row>
     <row r="117">
-      <c r="A117" s="27"/>
+      <c r="A117" s="26"/>
     </row>
     <row r="118">
-      <c r="A118" s="27"/>
+      <c r="A118" s="26"/>
     </row>
     <row r="119">
-      <c r="A119" s="27"/>
+      <c r="A119" s="26"/>
     </row>
     <row r="120">
-      <c r="A120" s="27"/>
+      <c r="A120" s="26"/>
     </row>
     <row r="121">
-      <c r="A121" s="27"/>
+      <c r="A121" s="26"/>
     </row>
     <row r="122">
-      <c r="A122" s="27"/>
+      <c r="A122" s="26"/>
     </row>
     <row r="123">
-      <c r="A123" s="27"/>
+      <c r="A123" s="26"/>
     </row>
     <row r="124">
-      <c r="A124" s="27"/>
+      <c r="A124" s="26"/>
     </row>
     <row r="125">
-      <c r="A125" s="27"/>
+      <c r="A125" s="26"/>
     </row>
     <row r="126">
-      <c r="A126" s="27"/>
+      <c r="A126" s="26"/>
     </row>
     <row r="127">
-      <c r="A127" s="27"/>
+      <c r="A127" s="26"/>
     </row>
     <row r="128">
-      <c r="A128" s="27"/>
+      <c r="A128" s="26"/>
     </row>
     <row r="129">
-      <c r="A129" s="27"/>
+      <c r="A129" s="26"/>
     </row>
     <row r="130">
-      <c r="A130" s="27"/>
+      <c r="A130" s="26"/>
     </row>
     <row r="131">
-      <c r="A131" s="27"/>
+      <c r="A131" s="26"/>
     </row>
     <row r="132">
-      <c r="A132" s="27"/>
+      <c r="A132" s="26"/>
     </row>
     <row r="133">
-      <c r="A133" s="27"/>
+      <c r="A133" s="26"/>
     </row>
     <row r="134">
-      <c r="A134" s="27"/>
+      <c r="A134" s="26"/>
     </row>
     <row r="135">
-      <c r="A135" s="27"/>
+      <c r="A135" s="26"/>
     </row>
     <row r="136">
-      <c r="A136" s="27"/>
+      <c r="A136" s="26"/>
     </row>
     <row r="137">
-      <c r="A137" s="27"/>
+      <c r="A137" s="26"/>
     </row>
     <row r="138">
-      <c r="A138" s="27"/>
+      <c r="A138" s="26"/>
     </row>
     <row r="139">
-      <c r="A139" s="27"/>
+      <c r="A139" s="26"/>
     </row>
     <row r="140">
-      <c r="A140" s="27"/>
+      <c r="A140" s="26"/>
     </row>
     <row r="141">
-      <c r="A141" s="27"/>
+      <c r="A141" s="26"/>
     </row>
     <row r="142">
-      <c r="A142" s="27"/>
+      <c r="A142" s="26"/>
     </row>
     <row r="143">
-      <c r="A143" s="27"/>
+      <c r="A143" s="26"/>
     </row>
     <row r="144">
-      <c r="A144" s="27"/>
+      <c r="A144" s="26"/>
     </row>
     <row r="145">
-      <c r="A145" s="27"/>
+      <c r="A145" s="26"/>
     </row>
     <row r="146">
-      <c r="A146" s="27"/>
+      <c r="A146" s="26"/>
     </row>
     <row r="147">
-      <c r="A147" s="27"/>
+      <c r="A147" s="26"/>
     </row>
     <row r="148">
-      <c r="A148" s="27"/>
+      <c r="A148" s="26"/>
     </row>
     <row r="149">
-      <c r="A149" s="27"/>
+      <c r="A149" s="26"/>
     </row>
     <row r="150">
-      <c r="A150" s="27"/>
+      <c r="A150" s="26"/>
     </row>
     <row r="151">
-      <c r="A151" s="27"/>
+      <c r="A151" s="26"/>
     </row>
     <row r="152">
-      <c r="A152" s="27"/>
+      <c r="A152" s="26"/>
     </row>
     <row r="153">
-      <c r="A153" s="27"/>
+      <c r="A153" s="26"/>
     </row>
     <row r="154">
-      <c r="A154" s="27"/>
+      <c r="A154" s="26"/>
     </row>
     <row r="155">
-      <c r="A155" s="27"/>
+      <c r="A155" s="26"/>
     </row>
     <row r="156">
-      <c r="A156" s="27"/>
+      <c r="A156" s="26"/>
     </row>
     <row r="157">
-      <c r="A157" s="27"/>
+      <c r="A157" s="26"/>
     </row>
     <row r="158">
-      <c r="A158" s="27"/>
+      <c r="A158" s="26"/>
     </row>
     <row r="159">
-      <c r="A159" s="27"/>
+      <c r="A159" s="26"/>
     </row>
     <row r="160">
-      <c r="A160" s="27"/>
+      <c r="A160" s="26"/>
     </row>
     <row r="161">
-      <c r="A161" s="27"/>
+      <c r="A161" s="26"/>
     </row>
     <row r="162">
-      <c r="A162" s="27"/>
+      <c r="A162" s="26"/>
     </row>
     <row r="163">
-      <c r="A163" s="27"/>
+      <c r="A163" s="26"/>
     </row>
     <row r="164">
-      <c r="A164" s="27"/>
+      <c r="A164" s="26"/>
     </row>
     <row r="165">
-      <c r="A165" s="27"/>
+      <c r="A165" s="26"/>
     </row>
     <row r="166">
-      <c r="A166" s="27"/>
+      <c r="A166" s="26"/>
     </row>
     <row r="167">
-      <c r="A167" s="27"/>
+      <c r="A167" s="26"/>
     </row>
     <row r="168">
-      <c r="A168" s="27"/>
+      <c r="A168" s="26"/>
     </row>
     <row r="169">
-      <c r="A169" s="27"/>
+      <c r="A169" s="26"/>
     </row>
     <row r="170">
-      <c r="A170" s="27"/>
+      <c r="A170" s="26"/>
     </row>
     <row r="171">
-      <c r="A171" s="27"/>
+      <c r="A171" s="26"/>
     </row>
     <row r="172">
-      <c r="A172" s="27"/>
+      <c r="A172" s="26"/>
     </row>
     <row r="173">
-      <c r="A173" s="27"/>
+      <c r="A173" s="26"/>
     </row>
     <row r="174">
-      <c r="A174" s="27"/>
+      <c r="A174" s="26"/>
     </row>
     <row r="175">
-      <c r="A175" s="27"/>
+      <c r="A175" s="26"/>
     </row>
     <row r="176">
-      <c r="A176" s="27"/>
+      <c r="A176" s="26"/>
     </row>
     <row r="177">
-      <c r="A177" s="27"/>
+      <c r="A177" s="26"/>
     </row>
     <row r="178">
-      <c r="A178" s="27"/>
+      <c r="A178" s="26"/>
     </row>
     <row r="179">
-      <c r="A179" s="27"/>
+      <c r="A179" s="26"/>
     </row>
     <row r="180">
-      <c r="A180" s="27"/>
+      <c r="A180" s="26"/>
     </row>
     <row r="181">
-      <c r="A181" s="27"/>
+      <c r="A181" s="26"/>
     </row>
     <row r="182">
-      <c r="A182" s="27"/>
+      <c r="A182" s="26"/>
     </row>
     <row r="183">
-      <c r="A183" s="27"/>
+      <c r="A183" s="26"/>
     </row>
     <row r="184">
-      <c r="A184" s="27"/>
+      <c r="A184" s="26"/>
     </row>
     <row r="185">
-      <c r="A185" s="27"/>
+      <c r="A185" s="26"/>
     </row>
     <row r="186">
-      <c r="A186" s="27"/>
+      <c r="A186" s="26"/>
     </row>
     <row r="187">
-      <c r="A187" s="27"/>
+      <c r="A187" s="26"/>
     </row>
     <row r="188">
-      <c r="A188" s="27"/>
+      <c r="A188" s="26"/>
     </row>
     <row r="189">
-      <c r="A189" s="27"/>
+      <c r="A189" s="26"/>
     </row>
     <row r="190">
-      <c r="A190" s="27"/>
+      <c r="A190" s="26"/>
     </row>
     <row r="191">
-      <c r="A191" s="27"/>
+      <c r="A191" s="26"/>
     </row>
     <row r="192">
-      <c r="A192" s="27"/>
+      <c r="A192" s="26"/>
     </row>
     <row r="193">
-      <c r="A193" s="27"/>
+      <c r="A193" s="26"/>
     </row>
     <row r="194">
-      <c r="A194" s="27"/>
+      <c r="A194" s="26"/>
     </row>
     <row r="195">
-      <c r="A195" s="27"/>
+      <c r="A195" s="26"/>
     </row>
     <row r="196">
-      <c r="A196" s="27"/>
+      <c r="A196" s="26"/>
     </row>
     <row r="197">
-      <c r="A197" s="27"/>
+      <c r="A197" s="26"/>
     </row>
     <row r="198">
-      <c r="A198" s="27"/>
+      <c r="A198" s="26"/>
     </row>
     <row r="199">
-      <c r="A199" s="27"/>
+      <c r="A199" s="26"/>
     </row>
     <row r="200">
-      <c r="A200" s="27"/>
-    </row>
-    <row r="201">
-      <c r="A201" s="11"/>
+      <c r="A200" s="11"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -15827,7 +17435,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43887.0</v>
       </c>
       <c r="B2" s="8" t="n">
@@ -15848,7 +17456,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -15857,7 +17465,7 @@
       <c r="K2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43888.0</v>
       </c>
       <c r="B3" s="8" t="n">
@@ -15878,12 +17486,12 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43894.0</v>
       </c>
       <c r="B4" s="8" t="n">
@@ -15904,12 +17512,12 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43901.0</v>
       </c>
       <c r="B5" s="8" t="n">
@@ -15930,12 +17538,12 @@
       <c r="G5" s="15">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43913.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -15956,12 +17564,12 @@
       <c r="G6" s="8">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43914.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -15982,12 +17590,12 @@
       <c r="G7" s="8">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>G7/C7</f>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43920.0</v>
       </c>
       <c r="B8" s="15" t="n">
@@ -16008,12 +17616,12 @@
       <c r="G8" s="8">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>G8/C8</f>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -16031,11 +17639,11 @@
       <c r="F9" s="8">
         <f>D9*E9</f>
       </c>
-      <c r="G9" s="15" t="n">
+      <c r="G9" s="29" t="n">
         <v>-671.1</v>
       </c>
-      <c r="H9" s="15" t="n">
-        <v>-10.51</v>
+      <c r="H9" s="16" t="n">
+        <v>-0.048</v>
       </c>
     </row>
     <row r="10">
@@ -16496,7 +18104,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43887.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -16517,7 +18125,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="I2" s="11" t="s">
@@ -16528,7 +18136,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="28" t="n">
+      <c r="A3" s="27" t="n">
         <v>43895.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -16549,7 +18157,7 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="11" t="s">
@@ -16557,7 +18165,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43899.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -16578,7 +18186,7 @@
       <c r="G4" s="8">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="11" t="s">
@@ -16586,7 +18194,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43902.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -16607,7 +18215,7 @@
       <c r="G5" s="8">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
       <c r="I5" s="11" t="s">
@@ -16615,7 +18223,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43907.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -16636,7 +18244,7 @@
       <c r="G6" s="8">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
       <c r="I6" s="3" t="s">
@@ -16644,7 +18252,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43909.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -16665,7 +18273,7 @@
       <c r="G7" s="8">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>G7/C7</f>
       </c>
       <c r="I7" s="3" t="s">
@@ -16673,7 +18281,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43910.0</v>
       </c>
       <c r="B8" s="15" t="n">
@@ -16694,7 +18302,7 @@
       <c r="G8" s="8">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>G8/C8</f>
       </c>
       <c r="I8" s="3" t="s">
@@ -16702,7 +18310,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43913.0</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -16723,7 +18331,7 @@
       <c r="G9" s="8">
         <f>F9-C9</f>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f>G9/C9</f>
       </c>
       <c r="I9" s="3" t="s">
@@ -16731,7 +18339,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="19" t="n">
         <v>43916.0</v>
       </c>
       <c r="B10" s="15" t="n">
@@ -16752,7 +18360,7 @@
       <c r="G10" s="8">
         <f>F10-C10</f>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <f>G10/C10</f>
       </c>
       <c r="I10" s="3" t="s">
@@ -16760,7 +18368,7 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="19" t="n">
         <v>43923.0</v>
       </c>
       <c r="B11" s="15" t="n">
@@ -16781,7 +18389,7 @@
       <c r="G11" s="8">
         <f>F11-C11</f>
       </c>
-      <c r="H11" s="20">
+      <c r="H11" s="18">
         <f>G11/C11</f>
       </c>
       <c r="I11" s="3" t="s">
@@ -16789,7 +18397,7 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="21" t="n">
+      <c r="A12" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B12" s="15" t="n">
@@ -16810,7 +18418,7 @@
       <c r="G12" s="8">
         <f>F12-C12</f>
       </c>
-      <c r="H12" s="20">
+      <c r="H12" s="18">
         <f>G12/C12</f>
       </c>
       <c r="I12" s="3" t="s">
@@ -16818,7 +18426,7 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="21" t="n">
+      <c r="A13" s="19" t="n">
         <v>43931.0</v>
       </c>
       <c r="B13" s="15" t="n">
@@ -16839,7 +18447,7 @@
       <c r="G13" s="8">
         <f>F13-C13</f>
       </c>
-      <c r="H13" s="20">
+      <c r="H13" s="18">
         <f>G13/C13</f>
       </c>
       <c r="I13" s="3" t="s">
@@ -16847,7 +18455,7 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="21" t="n">
+      <c r="A14" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B14" s="15" t="n">
@@ -16868,7 +18476,7 @@
       <c r="G14" s="8">
         <f>F14-C14</f>
       </c>
-      <c r="H14" s="20">
+      <c r="H14" s="18">
         <f>G14/C14</f>
       </c>
       <c r="I14" s="3" t="s">
@@ -16876,7 +18484,7 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="21" t="n">
+      <c r="A15" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B15" s="15" t="n">
@@ -16897,7 +18505,7 @@
       <c r="G15" s="8">
         <f>F15-C15</f>
       </c>
-      <c r="H15" s="20">
+      <c r="H15" s="18">
         <f>G15/C15</f>
       </c>
       <c r="I15" s="3" t="s">
@@ -16905,7 +18513,7 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="21" t="n">
+      <c r="A16" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B16" s="15" t="n">
@@ -16926,8 +18534,11 @@
       <c r="G16" s="15" t="n">
         <v>-593.69</v>
       </c>
-      <c r="H16" s="15" t="n">
-        <v>-8.75</v>
+      <c r="H16" s="16" t="n">
+        <v>-0.0457</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="17">
@@ -17374,7 +18985,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43875.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -17391,7 +19002,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43906.0</v>
       </c>
       <c r="B3" s="8" t="n">
@@ -17412,14 +19023,35 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="29">
+      <c r="H3" s="28">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="30"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="11"/>
+      <c r="A4" s="19" t="n">
+        <v>43951.0</v>
+      </c>
+      <c r="B4" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="15" t="n">
+        <v>2000.0</v>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>1.1127</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>1815.16</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
+      </c>
+      <c r="G4" s="8">
+        <f>F4-C4</f>
+      </c>
+      <c r="H4" s="18">
+        <f>G4/C4</f>
+      </c>
     </row>
     <row r="5">
 </row>
@@ -17889,7 +19521,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43895.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -17910,7 +19542,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -17918,7 +19550,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43896.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -17939,12 +19571,12 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43901.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -17965,12 +19597,12 @@
       <c r="G4" s="8">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43909.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -17991,12 +19623,12 @@
       <c r="G5" s="8">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43916.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -18017,12 +19649,12 @@
       <c r="G6" s="8">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43923.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -18043,12 +19675,12 @@
       <c r="G7" s="8">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>G7/C7</f>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B8" s="15" t="n">
@@ -18069,12 +19701,12 @@
       <c r="G8" s="8">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>G8/C8</f>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -18095,12 +19727,12 @@
       <c r="G9" s="8">
         <f>F9-C9</f>
       </c>
-      <c r="H9" s="20">
+      <c r="H9" s="18">
         <f>G9/C9</f>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="21" t="n">
+      <c r="A10" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B10" s="15" t="n">
@@ -18121,12 +19753,12 @@
       <c r="G10" s="8">
         <f>F10-C10</f>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="18">
         <f>G10/C10</f>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="21" t="n">
+      <c r="A11" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B11" s="15" t="n">
@@ -18147,8 +19779,8 @@
       <c r="G11" s="15" t="n">
         <v>-478.09</v>
       </c>
-      <c r="H11" s="15" t="n">
-        <v>-7.34</v>
+      <c r="H11" s="16" t="n">
+        <v>-0.0734</v>
       </c>
     </row>
     <row r="12">
@@ -18605,7 +20237,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="28" t="n">
+      <c r="A2" s="27" t="n">
         <v>43899.0</v>
       </c>
       <c r="B2" s="15" t="n">
@@ -18626,7 +20258,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="29">
+      <c r="H2" s="28">
         <f>G2/C2</f>
       </c>
       <c r="I2" s="11" t="s">
@@ -18637,7 +20269,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="21" t="n">
+      <c r="A3" s="19" t="n">
         <v>43902.0</v>
       </c>
       <c r="B3" s="15" t="n">
@@ -18658,7 +20290,7 @@
       <c r="G3" s="15">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="20">
+      <c r="H3" s="18">
         <f>G3/C3</f>
       </c>
       <c r="I3" s="11" t="s">
@@ -18666,7 +20298,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="21" t="n">
+      <c r="A4" s="19" t="n">
         <v>43909.0</v>
       </c>
       <c r="B4" s="15" t="n">
@@ -18687,7 +20319,7 @@
       <c r="G4" s="15">
         <f>F4-C4</f>
       </c>
-      <c r="H4" s="20">
+      <c r="H4" s="18">
         <f>G4/C4</f>
       </c>
       <c r="I4" s="3" t="s">
@@ -18695,7 +20327,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="21" t="n">
+      <c r="A5" s="19" t="n">
         <v>43916.0</v>
       </c>
       <c r="B5" s="15" t="n">
@@ -18716,7 +20348,7 @@
       <c r="G5" s="15">
         <f>F5-C5</f>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="18">
         <f>G5/C5</f>
       </c>
       <c r="I5" s="3" t="s">
@@ -18724,7 +20356,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="21" t="n">
+      <c r="A6" s="19" t="n">
         <v>43930.0</v>
       </c>
       <c r="B6" s="15" t="n">
@@ -18745,7 +20377,7 @@
       <c r="G6" s="15">
         <f>F6-C6</f>
       </c>
-      <c r="H6" s="20">
+      <c r="H6" s="18">
         <f>G6/C6</f>
       </c>
       <c r="I6" s="3" t="s">
@@ -18753,7 +20385,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="21" t="n">
+      <c r="A7" s="19" t="n">
         <v>43937.0</v>
       </c>
       <c r="B7" s="15" t="n">
@@ -18774,7 +20406,7 @@
       <c r="G7" s="15">
         <f>F7-C7</f>
       </c>
-      <c r="H7" s="20">
+      <c r="H7" s="18">
         <f>G7/C7</f>
       </c>
       <c r="I7" s="3" t="s">
@@ -18782,7 +20414,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="21" t="n">
+      <c r="A8" s="19" t="n">
         <v>43944.0</v>
       </c>
       <c r="B8" s="15" t="n">
@@ -18803,7 +20435,7 @@
       <c r="G8" s="15">
         <f>F8-C8</f>
       </c>
-      <c r="H8" s="20">
+      <c r="H8" s="18">
         <f>G8/C8</f>
       </c>
       <c r="I8" s="3" t="s">
@@ -18811,7 +20443,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="21" t="n">
+      <c r="A9" s="19" t="n">
         <v>43951.0</v>
       </c>
       <c r="B9" s="15" t="n">
@@ -18832,8 +20464,8 @@
       <c r="G9" s="15" t="n">
         <v>103.96</v>
       </c>
-      <c r="H9" s="15" t="n">
-        <v>4.15</v>
+      <c r="H9" s="16" t="n">
+        <v>0.0415</v>
       </c>
     </row>
     <row r="10">

--- a/jijin.xlsx
+++ b/jijin.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="17">
   <si>
     <t>日期</t>
   </si>
@@ -174,7 +174,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFill="true" applyBorder="true" quotePrefix="false" applyNumberFormat="false" applyFont="true">
       <alignment vertical="bottom" wrapText="false"/>
@@ -272,9 +272,6 @@
     <xf numFmtId="168" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
-      <alignment vertical="center" wrapText="false"/>
-    </xf>
     <xf numFmtId="169" fontId="2" fillId="0" borderId="1" xfId="0" applyBorder="true" quotePrefix="false" applyNumberFormat="true" applyFont="true">
       <alignment vertical="center" wrapText="false"/>
     </xf>
@@ -979,15 +976,33 @@
       <c r="P19" s="11"/>
     </row>
     <row r="20">
-      <c r="A20" s="11"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="17"/>
-      <c r="E20" s="17"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
+      <c r="A20" s="9" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B20" s="5" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C20" s="8">
+        <f>C19+B20</f>
+      </c>
+      <c r="D20" s="10" t="n">
+        <v>3.024</v>
+      </c>
+      <c r="E20" s="10" t="n">
+        <v>4484.28</v>
+      </c>
+      <c r="F20" s="7">
+        <f>D20*E20</f>
+      </c>
+      <c r="G20" s="15" t="n">
+        <v>560.83</v>
+      </c>
+      <c r="H20" s="16" t="n">
+        <v>0.0439</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11"/>
       <c r="L20" s="11"/>
@@ -4535,9 +4550,39 @@
       <c r="H10" s="16" t="n">
         <v>0.0571</v>
       </c>
+      <c r="I10" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="11">
-</row>
+      <c r="A11" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B11" s="15" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C11" s="15">
+        <f>C10+B11</f>
+      </c>
+      <c r="D11" s="15" t="n">
+        <v>2.3193</v>
+      </c>
+      <c r="E11" s="15" t="n">
+        <v>2532.4</v>
+      </c>
+      <c r="F11" s="15">
+        <f>D11*E11</f>
+      </c>
+      <c r="G11" s="15" t="n">
+        <v>373.76</v>
+      </c>
+      <c r="H11" s="16" t="n">
+        <v>0.0711</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="12">
 </row>
     <row r="13">
@@ -5151,7 +5196,31 @@
       </c>
     </row>
     <row r="8">
-</row>
+      <c r="A8" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C7+B8</f>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>1.2312</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>2955.44</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>78.73</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>0.0221</v>
+      </c>
+    </row>
     <row r="9">
 </row>
     <row r="10">
@@ -5785,9 +5854,39 @@
       <c r="H7" s="16" t="n">
         <v>0.0745</v>
       </c>
+      <c r="I7" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="8">
-</row>
+      <c r="A8" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C7+B8</f>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>1.7777</v>
+      </c>
+      <c r="E8" s="15" t="n">
+        <v>1493.52</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>155.4</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>0.069</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="9">
 </row>
     <row r="10">
@@ -7472,7 +7571,31 @@
       </c>
     </row>
     <row r="8">
-</row>
+      <c r="A8" s="32" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B8" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C8" s="8">
+        <f>C7-K7</f>
+      </c>
+      <c r="D8" s="15" t="n">
+        <v>1.338</v>
+      </c>
+      <c r="E8" s="8" t="n">
+        <v>946.97</v>
+      </c>
+      <c r="F8" s="8">
+        <f>D8*E8</f>
+      </c>
+      <c r="G8" s="15" t="n">
+        <v>-49.89</v>
+      </c>
+      <c r="H8" s="16" t="n">
+        <v>-0.0379</v>
+      </c>
+    </row>
     <row r="9">
 </row>
     <row r="10">
@@ -8469,7 +8592,9 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="19" t="n">
+        <v>43846.0</v>
+      </c>
       <c r="B2" s="15" t="n">
         <v>5000.0</v>
       </c>
@@ -8574,7 +8699,31 @@
       </c>
     </row>
     <row r="6">
-</row>
+      <c r="A6" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C6" s="15">
+        <f>C5+B6</f>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>1.0271</v>
+      </c>
+      <c r="E6" s="8" t="n">
+        <v>9624.37</v>
+      </c>
+      <c r="F6" s="15">
+        <f>D6*E6</f>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>-114.81</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>-0.0115</v>
+      </c>
+    </row>
     <row r="7">
 </row>
     <row r="8">
@@ -9058,7 +9207,7 @@
       <c r="G2" s="15">
         <f>F2-C2</f>
       </c>
-      <c r="H2" s="28">
+      <c r="H2" s="13">
         <f>G2/C2</f>
       </c>
       <c r="J2" s="8" t="n">
@@ -9087,7 +9236,7 @@
       <c r="G3" s="8">
         <f>F3-C3</f>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="14">
         <f>G3/C3</f>
       </c>
     </row>
@@ -9101,7 +9250,7 @@
       <c r="C4" s="8">
         <f>C3+B4</f>
       </c>
-      <c r="D4" s="34" t="n">
+      <c r="D4" s="33" t="n">
         <v>0.972</v>
       </c>
       <c r="E4" s="8" t="n">
@@ -9113,12 +9262,36 @@
       <c r="G4" s="15" t="n">
         <v>-111.98</v>
       </c>
-      <c r="H4" s="15" t="n">
-        <v>-4.48</v>
+      <c r="H4" s="14">
+        <f>G4/C4</f>
       </c>
     </row>
     <row r="5">
-</row>
+      <c r="A5" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4+B5</f>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>0.974</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>2456.82</v>
+      </c>
+      <c r="F5" s="8">
+        <f>D5*E5</f>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>-107.06</v>
+      </c>
+      <c r="H5" s="25" t="n">
+        <v>-0.0429</v>
+      </c>
+    </row>
     <row r="6">
 </row>
     <row r="7">
@@ -10122,7 +10295,7 @@
         <v>1.2124</v>
       </c>
       <c r="E2" s="5" t="n">
-        <v>1572.67</v>
+        <v>0.0</v>
       </c>
       <c r="F2" s="15">
         <f>D2*E2</f>
@@ -10162,7 +10335,7 @@
         <v>1.2633</v>
       </c>
       <c r="E3" s="5" t="n">
-        <v>2396.49</v>
+        <v>1572.67</v>
       </c>
       <c r="F3" s="8">
         <f>D3*E3</f>
@@ -10198,7 +10371,7 @@
         <v>1.224</v>
       </c>
       <c r="E4" s="15" t="n">
-        <v>4028.52</v>
+        <v>2396.49</v>
       </c>
       <c r="F4" s="8">
         <f>D4*E4</f>
@@ -10227,7 +10400,7 @@
         <v>1.1595</v>
       </c>
       <c r="E5" s="15" t="n">
-        <v>4889.93</v>
+        <v>4028.52</v>
       </c>
       <c r="F5" s="8">
         <f>D5*E5</f>
@@ -10256,7 +10429,7 @@
         <v>1.1968</v>
       </c>
       <c r="E6" s="15" t="n">
-        <v>5724.49</v>
+        <v>4889.93</v>
       </c>
       <c r="F6" s="8">
         <f>D6*E6</f>
@@ -10285,7 +10458,7 @@
         <v>1.0117</v>
       </c>
       <c r="E7" s="15" t="n">
-        <v>7698.99</v>
+        <v>5724.49</v>
       </c>
       <c r="F7" s="8">
         <f>D7*E7</f>
@@ -10313,8 +10486,8 @@
       <c r="D8" s="15" t="n">
         <v>1.0071</v>
       </c>
-      <c r="E8" s="15" t="n">
-        <v>8690.75</v>
+      <c r="E8" s="8" t="n">
+        <v>7698.99</v>
       </c>
       <c r="F8" s="8">
         <f>D8*E8</f>
@@ -10342,21 +10515,44 @@
       <c r="D9" s="15" t="n">
         <v>1.1139</v>
       </c>
-      <c r="E9" s="8" t="n">
+      <c r="E9" s="15" t="n">
         <v>8690.75</v>
       </c>
       <c r="F9" s="8">
         <f>D9*E9</f>
       </c>
       <c r="G9" s="15" t="n">
-        <v>-319.38</v>
+        <v>11.74</v>
       </c>
       <c r="H9" s="16" t="n">
         <v>-0.032</v>
       </c>
     </row>
     <row r="10">
-      <c r="F10" s="11"/>
+      <c r="A10" s="9" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="8">
+        <f>C9+B10</f>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>1.1505</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>8690.75</v>
+      </c>
+      <c r="F10" s="8">
+        <f>D10*E10</f>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>-1.3</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>-2.0E-4</v>
+      </c>
     </row>
     <row r="11">
       <c r="F11" s="11"/>
@@ -11092,7 +11288,7 @@
     </row>
     <row r="5">
       <c r="A5" s="19" t="n">
-        <v>43944.0</v>
+        <v>43951.0</v>
       </c>
       <c r="B5" s="15" t="n">
         <v>250.0</v>
@@ -11120,7 +11316,34 @@
       </c>
     </row>
     <row r="6">
-</row>
+      <c r="A6" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B6" s="15" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C6" s="8">
+        <f>C5+B6</f>
+      </c>
+      <c r="D6" s="15" t="n">
+        <v>1.3865</v>
+      </c>
+      <c r="E6" s="15" t="n">
+        <v>1307.84</v>
+      </c>
+      <c r="F6" s="8">
+        <f>D6*E6</f>
+      </c>
+      <c r="G6" s="15" t="n">
+        <v>63.32</v>
+      </c>
+      <c r="H6" s="16" t="n">
+        <v>0.0361</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="7">
 </row>
     <row r="8">
@@ -12762,7 +12985,31 @@
       </c>
     </row>
     <row r="7">
-</row>
+      <c r="A7" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B7" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C7" s="15">
+        <f>C6+B7</f>
+      </c>
+      <c r="D7" s="15" t="n">
+        <v>1.0892</v>
+      </c>
+      <c r="E7" s="8" t="n">
+        <v>3408.25</v>
+      </c>
+      <c r="F7" s="15">
+        <f>E7*D7</f>
+      </c>
+      <c r="G7" s="15" t="n">
+        <v>188.26</v>
+      </c>
+      <c r="H7" s="16" t="n">
+        <v>0.0534</v>
+      </c>
+    </row>
     <row r="8">
 </row>
     <row r="9">
@@ -13225,7 +13472,7 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="35"/>
+      <c r="A2" s="34"/>
       <c r="B2" s="8" t="n">
         <v>1750.5</v>
       </c>
@@ -13235,7 +13482,9 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
       <c r="H2" s="18"/>
-      <c r="J2" s="3"/>
+      <c r="J2" s="8" t="n">
+        <v>478.0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="27" t="n">
@@ -13260,9 +13509,7 @@
       <c r="H3" s="28">
         <f>G3/C3</f>
       </c>
-      <c r="J3" s="15" t="n">
-        <v>478.0</v>
-      </c>
+      <c r="J3" s="11"/>
     </row>
     <row r="4">
       <c r="A4" s="19" t="n">
@@ -13291,7 +13538,31 @@
       </c>
     </row>
     <row r="5">
-</row>
+      <c r="A5" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B5" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C5" s="8">
+        <f>C4+B5</f>
+      </c>
+      <c r="D5" s="15" t="n">
+        <v>2.0994</v>
+      </c>
+      <c r="E5" s="8" t="n">
+        <v>1871.11</v>
+      </c>
+      <c r="F5" s="15">
+        <f>D5*E5</f>
+      </c>
+      <c r="G5" s="15" t="n">
+        <v>-71.8</v>
+      </c>
+      <c r="H5" s="16" t="n">
+        <v>-0.018</v>
+      </c>
+    </row>
     <row r="6">
 </row>
     <row r="7">
@@ -13760,7 +14031,9 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="19" t="n">
+        <v>43284.0</v>
+      </c>
       <c r="B2" s="15" t="n">
         <v>5000.0</v>
       </c>
@@ -13804,7 +14077,31 @@
       </c>
     </row>
     <row r="4">
-</row>
+      <c r="A4" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+B4</f>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>1.1044</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>4970.18</v>
+      </c>
+      <c r="F4" s="8">
+        <f>D4*E4</f>
+      </c>
+      <c r="G4" s="15" t="n">
+        <v>489.06</v>
+      </c>
+      <c r="H4" s="16" t="n">
+        <v>0.0978</v>
+      </c>
+    </row>
     <row r="5">
 </row>
     <row r="6">
@@ -14273,7 +14570,9 @@
       <c r="R1" s="3"/>
     </row>
     <row r="2">
-      <c r="A2" s="33"/>
+      <c r="A2" s="19" t="n">
+        <v>43647.0</v>
+      </c>
       <c r="B2" s="15" t="n">
         <v>5050.0</v>
       </c>
@@ -14329,7 +14628,31 @@
       </c>
     </row>
     <row r="4">
-</row>
+      <c r="A4" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B4" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C4" s="8">
+        <f>C3+B4</f>
+      </c>
+      <c r="D4" s="15" t="n">
+        <v>1.2833</v>
+      </c>
+      <c r="E4" s="8" t="n">
+        <v>5001.81</v>
+      </c>
+      <c r="F4" s="15">
+        <f>E4*D4</f>
+      </c>
+      <c r="G4" s="8">
+        <f>F4-C4</f>
+      </c>
+      <c r="H4" s="14">
+        <f>G4/C4</f>
+      </c>
+    </row>
     <row r="5">
 </row>
     <row r="6">
@@ -15049,16 +15372,16 @@
     </row>
     <row r="10">
       <c r="A10" s="19" t="n">
-        <v>43951.0</v>
+        <v>43958.0</v>
       </c>
       <c r="B10" s="15" t="n">
-        <v>250.0</v>
+        <v>500.0</v>
       </c>
       <c r="C10" s="5">
         <f>C9+B10</f>
       </c>
       <c r="D10" s="15" t="n">
-        <v>1.1179</v>
+        <v>1.0904</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>7269.73</v>
@@ -15067,10 +15390,10 @@
         <f>D10*E10</f>
       </c>
       <c r="G10" s="5" t="n">
-        <v>306.83</v>
+        <v>106.91</v>
       </c>
       <c r="H10" s="22" t="n">
-        <v>0.0392</v>
+        <v>0.0136</v>
       </c>
     </row>
     <row r="11">
@@ -16655,9 +16978,33 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="23"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="24" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B24" s="8" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C24" s="8" t="n">
+        <v>15500.0</v>
+      </c>
+      <c r="D24" s="15" t="n">
+        <v>0.8828</v>
+      </c>
+      <c r="E24" s="15" t="n">
+        <v>18792.64</v>
+      </c>
+      <c r="F24" s="8">
+        <f>D24*E24</f>
+      </c>
+      <c r="G24" s="15" t="n">
+        <v>840.14</v>
+      </c>
+      <c r="H24" s="16" t="n">
+        <v>0.0533</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>11</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="23"/>
@@ -17647,7 +17994,31 @@
       </c>
     </row>
     <row r="10">
-</row>
+      <c r="A10" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B10" s="15" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="C10" s="8" t="n">
+        <v>14000.0</v>
+      </c>
+      <c r="D10" s="15" t="n">
+        <v>1.3581</v>
+      </c>
+      <c r="E10" s="8" t="n">
+        <v>10253.79</v>
+      </c>
+      <c r="F10" s="8">
+        <f>D10*E10</f>
+      </c>
+      <c r="G10" s="15" t="n">
+        <v>-74.33</v>
+      </c>
+      <c r="H10" s="16" t="n">
+        <v>-0.0054</v>
+      </c>
+    </row>
     <row r="11">
 </row>
     <row r="12">
@@ -18542,7 +18913,34 @@
       </c>
     </row>
     <row r="17">
-</row>
+      <c r="A17" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B17" s="15" t="n">
+        <v>250.0</v>
+      </c>
+      <c r="C17" s="8">
+        <f>C16+B17</f>
+      </c>
+      <c r="D17" s="15" t="n">
+        <v>1.0614</v>
+      </c>
+      <c r="E17" s="15" t="n">
+        <v>12188.29</v>
+      </c>
+      <c r="F17" s="8">
+        <f>D17*E17</f>
+      </c>
+      <c r="G17" s="15" t="n">
+        <v>-313.35</v>
+      </c>
+      <c r="H17" s="16" t="n">
+        <v>-0.0237</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
     <row r="18">
 </row>
     <row r="19">
@@ -19784,7 +20182,31 @@
       </c>
     </row>
     <row r="12">
-</row>
+      <c r="A12" s="19" t="n">
+        <v>43958.0</v>
+      </c>
+      <c r="B12" s="15" t="n">
+        <v>240.0</v>
+      </c>
+      <c r="C12" s="8">
+        <f>C11+B12</f>
+      </c>
+      <c r="D12" s="15" t="n">
+        <v>0.9513</v>
+      </c>
+      <c r="E12" s="15" t="n">
+        <v>6893.02</v>
+      </c>
+      <c r="F12" s="8">
+        <f>E12*D12</f>
+      </c>
+      <c r="G12" s="15" t="n">
+        <v>-502.67</v>
+      </c>
+      <c r="H12" s="16" t="n">
+        <v>-0.0738</v>
+      </c>
+    </row>
     <row r="13">
 </row>
     <row r="14">
@@ -20444,16 +20866,16 @@
     </row>
     <row r="9">
       <c r="A9" s="19" t="n">
-        <v>43951.0</v>
+        <v>43958.0</v>
       </c>
       <c r="B9" s="15" t="n">
-        <v>0.0</v>
+        <v>250.0</v>
       </c>
       <c r="C9" s="15">
         <f>C8+B9</f>
       </c>
       <c r="D9" s="15" t="n">
-        <v>1.1877</v>
+        <v>1.2075</v>
       </c>
       <c r="E9" s="8" t="n">
         <v>2192.44</v>
@@ -20462,10 +20884,13 @@
         <f>D9*E9</f>
       </c>
       <c r="G9" s="15" t="n">
-        <v>103.96</v>
+        <v>147.37</v>
       </c>
       <c r="H9" s="16" t="n">
-        <v>0.0415</v>
+        <v>0.0589</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="10">
